--- a/hhdaten/grunddaten.xlsx
+++ b/hhdaten/grunddaten.xlsx
@@ -8,17 +8,20 @@
   </bookViews>
   <sheets>
     <sheet name="gde" sheetId="1" r:id="rId1"/>
-    <sheet name="EW" sheetId="2" r:id="rId2"/>
-    <sheet name="EW_u20" sheetId="3" r:id="rId3"/>
-    <sheet name="Flaeche" sheetId="4" r:id="rId4"/>
-    <sheet name="LFAGHHJ" sheetId="5" r:id="rId5"/>
+    <sheet name="hhdaten" sheetId="6" r:id="rId2"/>
+    <sheet name="EW" sheetId="2" r:id="rId3"/>
+    <sheet name="EW_u20" sheetId="3" r:id="rId4"/>
+    <sheet name="Flaeche" sheetId="4" r:id="rId5"/>
+    <sheet name="LFAGHHJ" sheetId="5" r:id="rId6"/>
+    <sheet name="JAWerte" sheetId="7" r:id="rId7"/>
+    <sheet name="Tabelle3" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>gdenr</t>
   </si>
@@ -87,13 +90,85 @@
   </si>
   <si>
     <t>Ortsbürgermeister</t>
+  </si>
+  <si>
+    <t>kred_zinslos</t>
+  </si>
+  <si>
+    <t>wg_invest</t>
+  </si>
+  <si>
+    <t>vg</t>
+  </si>
+  <si>
+    <t>hhj</t>
+  </si>
+  <si>
+    <t>grst_a</t>
+  </si>
+  <si>
+    <t>grst_b</t>
+  </si>
+  <si>
+    <t>gewst</t>
+  </si>
+  <si>
+    <t>hust_1</t>
+  </si>
+  <si>
+    <t>hust_2</t>
+  </si>
+  <si>
+    <t>hust_3</t>
+  </si>
+  <si>
+    <t>hust_gef</t>
+  </si>
+  <si>
+    <t>ve_ohne_kredit</t>
+  </si>
+  <si>
+    <t>beschluss_vorjahr</t>
+  </si>
+  <si>
+    <t>beschluss_vorvorjahr</t>
+  </si>
+  <si>
+    <t>ja_vvj_beschluss</t>
+  </si>
+  <si>
+    <t>vvj_abgeschlosse</t>
+  </si>
+  <si>
+    <t>tilg</t>
+  </si>
+  <si>
+    <t>saldo_ordFin</t>
+  </si>
+  <si>
+    <t>saldoErg</t>
+  </si>
+  <si>
+    <t>ek_ab</t>
+  </si>
+  <si>
+    <t>ffs</t>
+  </si>
+  <si>
+    <t>ek_eb</t>
+  </si>
+  <si>
+    <t>fin_eb</t>
+  </si>
+  <si>
+    <t>fin_ab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +179,12 @@
     <font>
       <sz val="11"/>
       <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA31515"/>
+      <name val="Courier New"/>
       <family val="3"/>
     </font>
   </fonts>
@@ -127,9 +208,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -433,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="A25:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +534,7 @@
     <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,8 +553,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -489,8 +577,11 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -510,8 +601,11 @@
       <c r="F3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20</v>
       </c>
@@ -531,8 +625,11 @@
       <c r="F4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30</v>
       </c>
@@ -552,8 +649,11 @@
       <c r="F5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>40</v>
       </c>
@@ -573,8 +673,11 @@
       <c r="F6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50</v>
       </c>
@@ -594,8 +697,11 @@
       <c r="F7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>60</v>
       </c>
@@ -614,6 +720,9 @@
       </c>
       <c r="F8" t="s">
         <v>22</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -624,13 +733,578 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2020</v>
+      </c>
+      <c r="L2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>2020</v>
+      </c>
+      <c r="L3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>2020</v>
+      </c>
+      <c r="L4">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>2020</v>
+      </c>
+      <c r="L5">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>2020</v>
+      </c>
+      <c r="L6">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>2020</v>
+      </c>
+      <c r="L7">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>2020</v>
+      </c>
+      <c r="L8">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2021</v>
+      </c>
+      <c r="L9">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>2021</v>
+      </c>
+      <c r="L10">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>2021</v>
+      </c>
+      <c r="L11">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>2021</v>
+      </c>
+      <c r="L12">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>2021</v>
+      </c>
+      <c r="L13">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>2021</v>
+      </c>
+      <c r="L14">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>60</v>
+      </c>
+      <c r="B15">
+        <v>2021</v>
+      </c>
+      <c r="L15">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>2022</v>
+      </c>
+      <c r="L16">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>2022</v>
+      </c>
+      <c r="L17">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>2022</v>
+      </c>
+      <c r="L18">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>2022</v>
+      </c>
+      <c r="L19">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>2022</v>
+      </c>
+      <c r="L20">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>50</v>
+      </c>
+      <c r="B21">
+        <v>2022</v>
+      </c>
+      <c r="L21">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>60</v>
+      </c>
+      <c r="B22">
+        <v>2022</v>
+      </c>
+      <c r="L22">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2023</v>
+      </c>
+      <c r="L23">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>2023</v>
+      </c>
+      <c r="C24">
+        <v>510</v>
+      </c>
+      <c r="D24">
+        <v>510</v>
+      </c>
+      <c r="E24">
+        <v>440</v>
+      </c>
+      <c r="F24">
+        <v>48</v>
+      </c>
+      <c r="G24">
+        <f>F24*1.5</f>
+        <v>72</v>
+      </c>
+      <c r="H24">
+        <f>G24*1.5</f>
+        <v>108</v>
+      </c>
+      <c r="I24">
+        <v>480</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>50000</v>
+      </c>
+      <c r="O24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>2023</v>
+      </c>
+      <c r="C25">
+        <v>510</v>
+      </c>
+      <c r="D25">
+        <v>510</v>
+      </c>
+      <c r="E25">
+        <v>440</v>
+      </c>
+      <c r="F25">
+        <v>60</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ref="G25:H29" si="0">F25*1.5</f>
+        <v>90</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="I25">
+        <v>480</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>50000</v>
+      </c>
+      <c r="O25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>2023</v>
+      </c>
+      <c r="C26">
+        <v>510</v>
+      </c>
+      <c r="D26">
+        <v>510</v>
+      </c>
+      <c r="E26">
+        <v>440</v>
+      </c>
+      <c r="F26">
+        <v>84</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>189</v>
+      </c>
+      <c r="I26">
+        <v>480</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>50000</v>
+      </c>
+      <c r="O26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>2023</v>
+      </c>
+      <c r="C27">
+        <v>510</v>
+      </c>
+      <c r="D27">
+        <v>510</v>
+      </c>
+      <c r="E27">
+        <v>440</v>
+      </c>
+      <c r="F27">
+        <v>144</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>324</v>
+      </c>
+      <c r="I27">
+        <v>480</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>50000</v>
+      </c>
+      <c r="O27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>50</v>
+      </c>
+      <c r="B28">
+        <v>2023</v>
+      </c>
+      <c r="C28">
+        <v>560</v>
+      </c>
+      <c r="D28">
+        <v>580</v>
+      </c>
+      <c r="E28">
+        <v>440</v>
+      </c>
+      <c r="F28">
+        <v>120</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="I28">
+        <v>480</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>50000</v>
+      </c>
+      <c r="O28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>60</v>
+      </c>
+      <c r="B29">
+        <v>2023</v>
+      </c>
+      <c r="C29">
+        <v>510</v>
+      </c>
+      <c r="D29">
+        <v>510</v>
+      </c>
+      <c r="E29">
+        <v>440</v>
+      </c>
+      <c r="F29">
+        <v>72</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+      <c r="I29">
+        <v>480</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>50000</v>
+      </c>
+      <c r="M29" s="3">
+        <v>44541</v>
+      </c>
+      <c r="N29" s="2">
+        <v>44197</v>
+      </c>
+      <c r="O29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -650,9 +1324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -664,10 +1336,326 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="A25:E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2020</v>
+      </c>
+      <c r="I2">
+        <f>C2+E2</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>D2+H2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>60</v>
+      </c>
+      <c r="B15">
+        <v>2021</v>
+      </c>
+      <c r="C15">
+        <v>10000000</v>
+      </c>
+      <c r="I15">
+        <v>11000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>50</v>
+      </c>
+      <c r="B21">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>60</v>
+      </c>
+      <c r="B22">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>50</v>
+      </c>
+      <c r="B28">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>60</v>
+      </c>
+      <c r="B29">
+        <v>2023</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/hhdaten/grunddaten.xlsx
+++ b/hhdaten/grunddaten.xlsx
@@ -4,24 +4,28 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="12915" windowHeight="11580" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="7200" windowHeight="12225" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="gde" sheetId="1" r:id="rId1"/>
     <sheet name="hhdaten" sheetId="6" r:id="rId2"/>
-    <sheet name="EW" sheetId="2" r:id="rId3"/>
-    <sheet name="EW_u20" sheetId="3" r:id="rId4"/>
-    <sheet name="Flaeche" sheetId="4" r:id="rId5"/>
-    <sheet name="LFAGHHJ" sheetId="5" r:id="rId6"/>
-    <sheet name="JAWerte" sheetId="7" r:id="rId7"/>
-    <sheet name="Tabelle3" sheetId="8" r:id="rId8"/>
+    <sheet name="ew_wohn" sheetId="9" r:id="rId3"/>
+    <sheet name="ew_alter" sheetId="2" r:id="rId4"/>
+    <sheet name="e_u20" sheetId="3" r:id="rId5"/>
+    <sheet name="ew_einzuschulend" sheetId="10" r:id="rId6"/>
+    <sheet name="ew_religion" sheetId="12" r:id="rId7"/>
+    <sheet name="ew_famstand" sheetId="11" r:id="rId8"/>
+    <sheet name="Flaeche" sheetId="4" r:id="rId9"/>
+    <sheet name="LFAGHHJ" sheetId="5" r:id="rId10"/>
+    <sheet name="JAWerte" sheetId="7" r:id="rId11"/>
+    <sheet name="Tabelle3" sheetId="8" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="74">
   <si>
     <t>gdenr</t>
   </si>
@@ -162,6 +166,87 @@
   </si>
   <si>
     <t>fin_ab</t>
+  </si>
+  <si>
+    <t>bis 9 Jahre</t>
+  </si>
+  <si>
+    <t>10-19 Jahre</t>
+  </si>
+  <si>
+    <t>20-29 Jahre</t>
+  </si>
+  <si>
+    <t>30-39 Jahre</t>
+  </si>
+  <si>
+    <t>40-49 Jahre</t>
+  </si>
+  <si>
+    <t>50-59 Jahre</t>
+  </si>
+  <si>
+    <t>60-69 Jahre</t>
+  </si>
+  <si>
+    <t>70-79 Jahre</t>
+  </si>
+  <si>
+    <t>80-89 Jahre</t>
+  </si>
+  <si>
+    <t>90-99 Jahre</t>
+  </si>
+  <si>
+    <t>ab 100 Jahre</t>
+  </si>
+  <si>
+    <t>gde</t>
+  </si>
+  <si>
+    <t>datum</t>
+  </si>
+  <si>
+    <t>wohnstatus</t>
+  </si>
+  <si>
+    <t>maennl</t>
+  </si>
+  <si>
+    <t>weibl</t>
+  </si>
+  <si>
+    <t>Einwohner mit Hauptwohnung</t>
+  </si>
+  <si>
+    <t>davon Ausländer</t>
+  </si>
+  <si>
+    <t>Einwohner nur mit Nebenwohnung</t>
+  </si>
+  <si>
+    <t>altersgruppe</t>
+  </si>
+  <si>
+    <t>männlich</t>
+  </si>
+  <si>
+    <t>weiblich</t>
+  </si>
+  <si>
+    <t>unter 3 Jahren</t>
+  </si>
+  <si>
+    <t>3-5 Jahre</t>
+  </si>
+  <si>
+    <t>6-15 Jahre</t>
+  </si>
+  <si>
+    <t>16-17 Jahre</t>
+  </si>
+  <si>
+    <t>18-20 Jahre</t>
   </si>
 </sst>
 </file>
@@ -731,584 +816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2020</v>
-      </c>
-      <c r="L2">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>2020</v>
-      </c>
-      <c r="L3">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <v>2020</v>
-      </c>
-      <c r="L4">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>30</v>
-      </c>
-      <c r="B5">
-        <v>2020</v>
-      </c>
-      <c r="L5">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>40</v>
-      </c>
-      <c r="B6">
-        <v>2020</v>
-      </c>
-      <c r="L6">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>50</v>
-      </c>
-      <c r="B7">
-        <v>2020</v>
-      </c>
-      <c r="L7">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>60</v>
-      </c>
-      <c r="B8">
-        <v>2020</v>
-      </c>
-      <c r="L8">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>2021</v>
-      </c>
-      <c r="L9">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>2021</v>
-      </c>
-      <c r="L10">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>20</v>
-      </c>
-      <c r="B11">
-        <v>2021</v>
-      </c>
-      <c r="L11">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>30</v>
-      </c>
-      <c r="B12">
-        <v>2021</v>
-      </c>
-      <c r="L12">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>40</v>
-      </c>
-      <c r="B13">
-        <v>2021</v>
-      </c>
-      <c r="L13">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>50</v>
-      </c>
-      <c r="B14">
-        <v>2021</v>
-      </c>
-      <c r="L14">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>60</v>
-      </c>
-      <c r="B15">
-        <v>2021</v>
-      </c>
-      <c r="L15">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>2022</v>
-      </c>
-      <c r="L16">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>10</v>
-      </c>
-      <c r="B17">
-        <v>2022</v>
-      </c>
-      <c r="L17">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>2022</v>
-      </c>
-      <c r="L18">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>2022</v>
-      </c>
-      <c r="L19">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>40</v>
-      </c>
-      <c r="B20">
-        <v>2022</v>
-      </c>
-      <c r="L20">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>50</v>
-      </c>
-      <c r="B21">
-        <v>2022</v>
-      </c>
-      <c r="L21">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>60</v>
-      </c>
-      <c r="B22">
-        <v>2022</v>
-      </c>
-      <c r="L22">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>2023</v>
-      </c>
-      <c r="L23">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>10</v>
-      </c>
-      <c r="B24">
-        <v>2023</v>
-      </c>
-      <c r="C24">
-        <v>510</v>
-      </c>
-      <c r="D24">
-        <v>510</v>
-      </c>
-      <c r="E24">
-        <v>440</v>
-      </c>
-      <c r="F24">
-        <v>48</v>
-      </c>
-      <c r="G24">
-        <f>F24*1.5</f>
-        <v>72</v>
-      </c>
-      <c r="H24">
-        <f>G24*1.5</f>
-        <v>108</v>
-      </c>
-      <c r="I24">
-        <v>480</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>50000</v>
-      </c>
-      <c r="O24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>20</v>
-      </c>
-      <c r="B25">
-        <v>2023</v>
-      </c>
-      <c r="C25">
-        <v>510</v>
-      </c>
-      <c r="D25">
-        <v>510</v>
-      </c>
-      <c r="E25">
-        <v>440</v>
-      </c>
-      <c r="F25">
-        <v>60</v>
-      </c>
-      <c r="G25">
-        <f t="shared" ref="G25:H29" si="0">F25*1.5</f>
-        <v>90</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="I25">
-        <v>480</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>50000</v>
-      </c>
-      <c r="O25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>30</v>
-      </c>
-      <c r="B26">
-        <v>2023</v>
-      </c>
-      <c r="C26">
-        <v>510</v>
-      </c>
-      <c r="D26">
-        <v>510</v>
-      </c>
-      <c r="E26">
-        <v>440</v>
-      </c>
-      <c r="F26">
-        <v>84</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="0"/>
-        <v>126</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="0"/>
-        <v>189</v>
-      </c>
-      <c r="I26">
-        <v>480</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>50000</v>
-      </c>
-      <c r="O26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>40</v>
-      </c>
-      <c r="B27">
-        <v>2023</v>
-      </c>
-      <c r="C27">
-        <v>510</v>
-      </c>
-      <c r="D27">
-        <v>510</v>
-      </c>
-      <c r="E27">
-        <v>440</v>
-      </c>
-      <c r="F27">
-        <v>144</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="0"/>
-        <v>216</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="0"/>
-        <v>324</v>
-      </c>
-      <c r="I27">
-        <v>480</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>50000</v>
-      </c>
-      <c r="O27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>50</v>
-      </c>
-      <c r="B28">
-        <v>2023</v>
-      </c>
-      <c r="C28">
-        <v>560</v>
-      </c>
-      <c r="D28">
-        <v>580</v>
-      </c>
-      <c r="E28">
-        <v>440</v>
-      </c>
-      <c r="F28">
-        <v>120</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-      <c r="I28">
-        <v>480</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>50000</v>
-      </c>
-      <c r="O28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>60</v>
-      </c>
-      <c r="B29">
-        <v>2023</v>
-      </c>
-      <c r="C29">
-        <v>510</v>
-      </c>
-      <c r="D29">
-        <v>510</v>
-      </c>
-      <c r="E29">
-        <v>440</v>
-      </c>
-      <c r="F29">
-        <v>72</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="0"/>
-        <v>108</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="0"/>
-        <v>162</v>
-      </c>
-      <c r="I29">
-        <v>480</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>50000</v>
-      </c>
-      <c r="M29" s="3">
-        <v>44541</v>
-      </c>
-      <c r="N29" s="2">
-        <v>44197</v>
-      </c>
-      <c r="O29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1320,45 +828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
@@ -1646,7 +1116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1658,4 +1128,2969 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2020</v>
+      </c>
+      <c r="L2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>2020</v>
+      </c>
+      <c r="L3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>2020</v>
+      </c>
+      <c r="L4">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>2020</v>
+      </c>
+      <c r="L5">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>2020</v>
+      </c>
+      <c r="L6">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>2020</v>
+      </c>
+      <c r="L7">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>2020</v>
+      </c>
+      <c r="L8">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2021</v>
+      </c>
+      <c r="L9">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>2021</v>
+      </c>
+      <c r="L10">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>2021</v>
+      </c>
+      <c r="L11">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>2021</v>
+      </c>
+      <c r="L12">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>2021</v>
+      </c>
+      <c r="L13">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>2021</v>
+      </c>
+      <c r="L14">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>60</v>
+      </c>
+      <c r="B15">
+        <v>2021</v>
+      </c>
+      <c r="L15">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>2022</v>
+      </c>
+      <c r="L16">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>2022</v>
+      </c>
+      <c r="L17">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>2022</v>
+      </c>
+      <c r="L18">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>2022</v>
+      </c>
+      <c r="L19">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>2022</v>
+      </c>
+      <c r="L20">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>50</v>
+      </c>
+      <c r="B21">
+        <v>2022</v>
+      </c>
+      <c r="L21">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>60</v>
+      </c>
+      <c r="B22">
+        <v>2022</v>
+      </c>
+      <c r="L22">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2023</v>
+      </c>
+      <c r="L23">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>2023</v>
+      </c>
+      <c r="C24">
+        <v>510</v>
+      </c>
+      <c r="D24">
+        <v>510</v>
+      </c>
+      <c r="E24">
+        <v>440</v>
+      </c>
+      <c r="F24">
+        <v>48</v>
+      </c>
+      <c r="G24">
+        <f>F24*1.5</f>
+        <v>72</v>
+      </c>
+      <c r="H24">
+        <f>G24*1.5</f>
+        <v>108</v>
+      </c>
+      <c r="I24">
+        <v>480</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>50000</v>
+      </c>
+      <c r="O24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>2023</v>
+      </c>
+      <c r="C25">
+        <v>510</v>
+      </c>
+      <c r="D25">
+        <v>510</v>
+      </c>
+      <c r="E25">
+        <v>440</v>
+      </c>
+      <c r="F25">
+        <v>60</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ref="G25:H29" si="0">F25*1.5</f>
+        <v>90</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="I25">
+        <v>480</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>50000</v>
+      </c>
+      <c r="O25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>2023</v>
+      </c>
+      <c r="C26">
+        <v>510</v>
+      </c>
+      <c r="D26">
+        <v>510</v>
+      </c>
+      <c r="E26">
+        <v>440</v>
+      </c>
+      <c r="F26">
+        <v>84</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>189</v>
+      </c>
+      <c r="I26">
+        <v>480</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>50000</v>
+      </c>
+      <c r="O26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>2023</v>
+      </c>
+      <c r="C27">
+        <v>510</v>
+      </c>
+      <c r="D27">
+        <v>510</v>
+      </c>
+      <c r="E27">
+        <v>440</v>
+      </c>
+      <c r="F27">
+        <v>144</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>324</v>
+      </c>
+      <c r="I27">
+        <v>480</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>50000</v>
+      </c>
+      <c r="O27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>50</v>
+      </c>
+      <c r="B28">
+        <v>2023</v>
+      </c>
+      <c r="C28">
+        <v>560</v>
+      </c>
+      <c r="D28">
+        <v>580</v>
+      </c>
+      <c r="E28">
+        <v>440</v>
+      </c>
+      <c r="F28">
+        <v>120</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="I28">
+        <v>480</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>50000</v>
+      </c>
+      <c r="O28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>60</v>
+      </c>
+      <c r="B29">
+        <v>2023</v>
+      </c>
+      <c r="C29">
+        <v>510</v>
+      </c>
+      <c r="D29">
+        <v>510</v>
+      </c>
+      <c r="E29">
+        <v>440</v>
+      </c>
+      <c r="F29">
+        <v>72</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+      <c r="I29">
+        <v>480</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>50000</v>
+      </c>
+      <c r="M29" s="3">
+        <v>44541</v>
+      </c>
+      <c r="N29" s="2">
+        <v>44197</v>
+      </c>
+      <c r="O29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>60</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44742</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2">
+        <v>2042</v>
+      </c>
+      <c r="E2">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44742</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3">
+        <v>108</v>
+      </c>
+      <c r="E3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>60</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44742</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4">
+        <v>45</v>
+      </c>
+      <c r="E4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>60</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44742</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>60</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44377</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6">
+        <v>2054</v>
+      </c>
+      <c r="E6">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7">
+        <v>108</v>
+      </c>
+      <c r="E7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44377</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8">
+        <v>43</v>
+      </c>
+      <c r="E8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>60</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44377</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>60</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44012</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10">
+        <v>2020</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>60</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44012</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44012</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>60</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44012</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>60</v>
+      </c>
+      <c r="B14" s="2">
+        <v>43646</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14">
+        <v>2019</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>60</v>
+      </c>
+      <c r="B15" s="2">
+        <v>43646</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2">
+        <v>43646</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>60</v>
+      </c>
+      <c r="B17" s="2">
+        <v>43646</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>60</v>
+      </c>
+      <c r="B18" s="2">
+        <v>43281</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18">
+        <v>2018</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>60</v>
+      </c>
+      <c r="B19" s="2">
+        <v>43281</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>60</v>
+      </c>
+      <c r="B20" s="2">
+        <v>43281</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>60</v>
+      </c>
+      <c r="B21" s="2">
+        <v>43281</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>60</v>
+      </c>
+      <c r="B22" s="2">
+        <v>42916</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22">
+        <v>2017</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>60</v>
+      </c>
+      <c r="B23" s="2">
+        <v>42916</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>60</v>
+      </c>
+      <c r="B24" s="2">
+        <v>42916</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24">
+        <v>13</v>
+      </c>
+      <c r="E24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>60</v>
+      </c>
+      <c r="B25" s="2">
+        <v>42916</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25">
+        <v>14</v>
+      </c>
+      <c r="E25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>60</v>
+      </c>
+      <c r="B26" s="2">
+        <v>42551</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26">
+        <v>2089</v>
+      </c>
+      <c r="E26">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>60</v>
+      </c>
+      <c r="B27" s="2">
+        <v>42551</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27">
+        <v>101</v>
+      </c>
+      <c r="E27">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>60</v>
+      </c>
+      <c r="B28" s="2">
+        <v>42551</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28">
+        <v>38</v>
+      </c>
+      <c r="E28">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>60</v>
+      </c>
+      <c r="B29" s="2">
+        <v>42551</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>60</v>
+      </c>
+      <c r="B30" s="2">
+        <v>42185</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30">
+        <v>2015</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>60</v>
+      </c>
+      <c r="B31" s="2">
+        <v>42185</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>60</v>
+      </c>
+      <c r="B32" s="2">
+        <v>42185</v>
+      </c>
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32">
+        <v>13</v>
+      </c>
+      <c r="E32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>60</v>
+      </c>
+      <c r="B33" s="2">
+        <v>42185</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33">
+        <v>14</v>
+      </c>
+      <c r="E33">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E89"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>60</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44742</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2">
+        <v>164</v>
+      </c>
+      <c r="E2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44742</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3">
+        <v>183</v>
+      </c>
+      <c r="E3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>60</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44742</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4">
+        <v>225</v>
+      </c>
+      <c r="E4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>60</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44742</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>243</v>
+      </c>
+      <c r="E5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>60</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44742</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6">
+        <v>209</v>
+      </c>
+      <c r="E6">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7">
+        <v>370</v>
+      </c>
+      <c r="E7">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44742</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8">
+        <v>295</v>
+      </c>
+      <c r="E8">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>60</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44742</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9">
+        <v>199</v>
+      </c>
+      <c r="E9">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>60</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44742</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10">
+        <v>133</v>
+      </c>
+      <c r="E10">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>60</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44742</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44742</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>60</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44377</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13">
+        <v>162</v>
+      </c>
+      <c r="E13">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>60</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44377</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14">
+        <v>184</v>
+      </c>
+      <c r="E14">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>60</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44377</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15">
+        <v>243</v>
+      </c>
+      <c r="E15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44377</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>237</v>
+      </c>
+      <c r="E16">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>60</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44377</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17">
+        <v>206</v>
+      </c>
+      <c r="E17">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>60</v>
+      </c>
+      <c r="B18" s="2">
+        <v>44377</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18">
+        <v>384</v>
+      </c>
+      <c r="E18">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>60</v>
+      </c>
+      <c r="B19" s="2">
+        <v>44377</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19">
+        <v>291</v>
+      </c>
+      <c r="E19">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>60</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44377</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20">
+        <v>196</v>
+      </c>
+      <c r="E20">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>60</v>
+      </c>
+      <c r="B21" s="2">
+        <v>44377</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21">
+        <v>125</v>
+      </c>
+      <c r="E21">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>60</v>
+      </c>
+      <c r="B22" s="2">
+        <v>44377</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>60</v>
+      </c>
+      <c r="B23" s="2">
+        <v>44377</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>60</v>
+      </c>
+      <c r="B24" s="2">
+        <v>44012</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>60</v>
+      </c>
+      <c r="B25" s="2">
+        <v>44012</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>60</v>
+      </c>
+      <c r="B26" s="2">
+        <v>44012</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>60</v>
+      </c>
+      <c r="B27" s="2">
+        <v>44012</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>60</v>
+      </c>
+      <c r="B28" s="2">
+        <v>44012</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>60</v>
+      </c>
+      <c r="B29" s="2">
+        <v>44012</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>60</v>
+      </c>
+      <c r="B30" s="2">
+        <v>44012</v>
+      </c>
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>60</v>
+      </c>
+      <c r="B31" s="2">
+        <v>44012</v>
+      </c>
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>60</v>
+      </c>
+      <c r="B32" s="2">
+        <v>44012</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>60</v>
+      </c>
+      <c r="B33" s="2">
+        <v>44012</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>60</v>
+      </c>
+      <c r="B34" s="2">
+        <v>44012</v>
+      </c>
+      <c r="C34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>60</v>
+      </c>
+      <c r="B35" s="2">
+        <v>43646</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>60</v>
+      </c>
+      <c r="B36" s="2">
+        <v>43646</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>60</v>
+      </c>
+      <c r="B37" s="2">
+        <v>43646</v>
+      </c>
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>60</v>
+      </c>
+      <c r="B38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>60</v>
+      </c>
+      <c r="B39" s="2">
+        <v>43646</v>
+      </c>
+      <c r="C39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>60</v>
+      </c>
+      <c r="B40" s="2">
+        <v>43646</v>
+      </c>
+      <c r="C40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>60</v>
+      </c>
+      <c r="B41" s="2">
+        <v>43646</v>
+      </c>
+      <c r="C41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>60</v>
+      </c>
+      <c r="B42" s="2">
+        <v>43646</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>60</v>
+      </c>
+      <c r="B43" s="2">
+        <v>43646</v>
+      </c>
+      <c r="C43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>60</v>
+      </c>
+      <c r="B44" s="2">
+        <v>43646</v>
+      </c>
+      <c r="C44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>60</v>
+      </c>
+      <c r="B45" s="2">
+        <v>43646</v>
+      </c>
+      <c r="C45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>60</v>
+      </c>
+      <c r="B46" s="2">
+        <v>43281</v>
+      </c>
+      <c r="C46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>60</v>
+      </c>
+      <c r="B47" s="2">
+        <v>43281</v>
+      </c>
+      <c r="C47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>60</v>
+      </c>
+      <c r="B48" s="2">
+        <v>43281</v>
+      </c>
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>60</v>
+      </c>
+      <c r="B49" s="2">
+        <v>43281</v>
+      </c>
+      <c r="C49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>60</v>
+      </c>
+      <c r="B50" s="2">
+        <v>43281</v>
+      </c>
+      <c r="C50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>60</v>
+      </c>
+      <c r="B51" s="2">
+        <v>43281</v>
+      </c>
+      <c r="C51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>60</v>
+      </c>
+      <c r="B52" s="2">
+        <v>43281</v>
+      </c>
+      <c r="C52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>60</v>
+      </c>
+      <c r="B53" s="2">
+        <v>43281</v>
+      </c>
+      <c r="C53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>60</v>
+      </c>
+      <c r="B54" s="2">
+        <v>43281</v>
+      </c>
+      <c r="C54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>60</v>
+      </c>
+      <c r="B55" s="2">
+        <v>43281</v>
+      </c>
+      <c r="C55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>60</v>
+      </c>
+      <c r="B56" s="2">
+        <v>43281</v>
+      </c>
+      <c r="C56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>60</v>
+      </c>
+      <c r="B57" s="2">
+        <v>42916</v>
+      </c>
+      <c r="C57" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>60</v>
+      </c>
+      <c r="B58" s="2">
+        <v>42916</v>
+      </c>
+      <c r="C58" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>60</v>
+      </c>
+      <c r="B59" s="2">
+        <v>42916</v>
+      </c>
+      <c r="C59" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60" s="2">
+        <v>42916</v>
+      </c>
+      <c r="C60" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2">
+        <v>42916</v>
+      </c>
+      <c r="C61" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2">
+        <v>42916</v>
+      </c>
+      <c r="C62" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63" s="2">
+        <v>42916</v>
+      </c>
+      <c r="C63" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>60</v>
+      </c>
+      <c r="B64" s="2">
+        <v>42916</v>
+      </c>
+      <c r="C64" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>60</v>
+      </c>
+      <c r="B65" s="2">
+        <v>42916</v>
+      </c>
+      <c r="C65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>60</v>
+      </c>
+      <c r="B66" s="2">
+        <v>42916</v>
+      </c>
+      <c r="C66" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>60</v>
+      </c>
+      <c r="B67" s="2">
+        <v>42916</v>
+      </c>
+      <c r="C67" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>60</v>
+      </c>
+      <c r="B68" s="2">
+        <v>42551</v>
+      </c>
+      <c r="C68" t="s">
+        <v>47</v>
+      </c>
+      <c r="D68">
+        <v>147</v>
+      </c>
+      <c r="E68">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>60</v>
+      </c>
+      <c r="B69" s="2">
+        <v>42551</v>
+      </c>
+      <c r="C69" t="s">
+        <v>48</v>
+      </c>
+      <c r="D69">
+        <v>203</v>
+      </c>
+      <c r="E69">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>60</v>
+      </c>
+      <c r="B70" s="2">
+        <v>42551</v>
+      </c>
+      <c r="C70" t="s">
+        <v>49</v>
+      </c>
+      <c r="D70">
+        <v>274</v>
+      </c>
+      <c r="E70">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>60</v>
+      </c>
+      <c r="B71" s="2">
+        <v>42551</v>
+      </c>
+      <c r="C71" t="s">
+        <v>50</v>
+      </c>
+      <c r="D71">
+        <v>208</v>
+      </c>
+      <c r="E71">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>60</v>
+      </c>
+      <c r="B72" s="2">
+        <v>42551</v>
+      </c>
+      <c r="C72" t="s">
+        <v>51</v>
+      </c>
+      <c r="D72">
+        <v>286</v>
+      </c>
+      <c r="E72">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>60</v>
+      </c>
+      <c r="B73" s="2">
+        <v>42551</v>
+      </c>
+      <c r="C73" t="s">
+        <v>52</v>
+      </c>
+      <c r="D73">
+        <v>370</v>
+      </c>
+      <c r="E73">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>60</v>
+      </c>
+      <c r="B74" s="2">
+        <v>42551</v>
+      </c>
+      <c r="C74" t="s">
+        <v>53</v>
+      </c>
+      <c r="D74">
+        <v>280</v>
+      </c>
+      <c r="E74">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>60</v>
+      </c>
+      <c r="B75" s="2">
+        <v>42551</v>
+      </c>
+      <c r="C75" t="s">
+        <v>54</v>
+      </c>
+      <c r="D75">
+        <v>207</v>
+      </c>
+      <c r="E75">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>60</v>
+      </c>
+      <c r="B76" s="2">
+        <v>42551</v>
+      </c>
+      <c r="C76" t="s">
+        <v>55</v>
+      </c>
+      <c r="D76">
+        <v>99</v>
+      </c>
+      <c r="E76">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>60</v>
+      </c>
+      <c r="B77" s="2">
+        <v>42551</v>
+      </c>
+      <c r="C77" t="s">
+        <v>56</v>
+      </c>
+      <c r="D77">
+        <v>15</v>
+      </c>
+      <c r="E77">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>60</v>
+      </c>
+      <c r="B78" s="2">
+        <v>42551</v>
+      </c>
+      <c r="C78" t="s">
+        <v>57</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>60</v>
+      </c>
+      <c r="B79" s="2">
+        <v>42185</v>
+      </c>
+      <c r="C79" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>60</v>
+      </c>
+      <c r="B80" s="2">
+        <v>42185</v>
+      </c>
+      <c r="C80" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>60</v>
+      </c>
+      <c r="B81" s="2">
+        <v>42185</v>
+      </c>
+      <c r="C81" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>60</v>
+      </c>
+      <c r="B82" s="2">
+        <v>42185</v>
+      </c>
+      <c r="C82" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>60</v>
+      </c>
+      <c r="B83" s="2">
+        <v>42185</v>
+      </c>
+      <c r="C83" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>60</v>
+      </c>
+      <c r="B84" s="2">
+        <v>42185</v>
+      </c>
+      <c r="C84" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>60</v>
+      </c>
+      <c r="B85" s="2">
+        <v>42185</v>
+      </c>
+      <c r="C85" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>60</v>
+      </c>
+      <c r="B86" s="2">
+        <v>42185</v>
+      </c>
+      <c r="C86" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>60</v>
+      </c>
+      <c r="B87" s="2">
+        <v>42185</v>
+      </c>
+      <c r="C87" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>60</v>
+      </c>
+      <c r="B88" s="2">
+        <v>42185</v>
+      </c>
+      <c r="C88" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>60</v>
+      </c>
+      <c r="B89" s="2">
+        <v>42185</v>
+      </c>
+      <c r="C89" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>60</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44742</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2">
+        <v>62</v>
+      </c>
+      <c r="E2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44742</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>60</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44742</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4">
+        <v>164</v>
+      </c>
+      <c r="E4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>60</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44742</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5">
+        <v>41</v>
+      </c>
+      <c r="E5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>60</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44742</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6">
+        <v>61</v>
+      </c>
+      <c r="E6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7">
+        <v>57</v>
+      </c>
+      <c r="E7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44377</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8">
+        <v>41</v>
+      </c>
+      <c r="E8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>60</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44377</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9">
+        <v>170</v>
+      </c>
+      <c r="E9">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>60</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44377</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>60</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44377</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11">
+        <v>64</v>
+      </c>
+      <c r="E11">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44012</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>60</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44012</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>60</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44012</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>60</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44012</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44012</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>60</v>
+      </c>
+      <c r="B17" s="2">
+        <v>43646</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>60</v>
+      </c>
+      <c r="B18" s="2">
+        <v>43646</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>60</v>
+      </c>
+      <c r="B19" s="2">
+        <v>43646</v>
+      </c>
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>60</v>
+      </c>
+      <c r="B20" s="2">
+        <v>43646</v>
+      </c>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>60</v>
+      </c>
+      <c r="B21" s="2">
+        <v>43646</v>
+      </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>60</v>
+      </c>
+      <c r="B22" s="2">
+        <v>43281</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>60</v>
+      </c>
+      <c r="B23" s="2">
+        <v>43281</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>60</v>
+      </c>
+      <c r="B24" s="2">
+        <v>43281</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>60</v>
+      </c>
+      <c r="B25" s="2">
+        <v>43281</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>60</v>
+      </c>
+      <c r="B26" s="2">
+        <v>43281</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>60</v>
+      </c>
+      <c r="B27" s="2">
+        <v>42916</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>60</v>
+      </c>
+      <c r="B28" s="2">
+        <v>42916</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>60</v>
+      </c>
+      <c r="B29" s="2">
+        <v>42916</v>
+      </c>
+      <c r="C29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>60</v>
+      </c>
+      <c r="B30" s="2">
+        <v>42916</v>
+      </c>
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>60</v>
+      </c>
+      <c r="B31" s="2">
+        <v>42916</v>
+      </c>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>60</v>
+      </c>
+      <c r="B32" s="2">
+        <v>42551</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32">
+        <v>45</v>
+      </c>
+      <c r="E32">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>60</v>
+      </c>
+      <c r="B33" s="2">
+        <v>42551</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33">
+        <v>38</v>
+      </c>
+      <c r="E33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>60</v>
+      </c>
+      <c r="B34" s="2">
+        <v>42551</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34">
+        <v>170</v>
+      </c>
+      <c r="E34">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>60</v>
+      </c>
+      <c r="B35" s="2">
+        <v>42551</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35">
+        <v>47</v>
+      </c>
+      <c r="E35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>60</v>
+      </c>
+      <c r="B36" s="2">
+        <v>42551</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36">
+        <v>81</v>
+      </c>
+      <c r="E36">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>60</v>
+      </c>
+      <c r="B37" s="2">
+        <v>42185</v>
+      </c>
+      <c r="C37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>60</v>
+      </c>
+      <c r="B38" s="2">
+        <v>42185</v>
+      </c>
+      <c r="C38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>60</v>
+      </c>
+      <c r="B39" s="2">
+        <v>42185</v>
+      </c>
+      <c r="C39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>60</v>
+      </c>
+      <c r="B40" s="2">
+        <v>42185</v>
+      </c>
+      <c r="C40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>60</v>
+      </c>
+      <c r="B41" s="2">
+        <v>42185</v>
+      </c>
+      <c r="C41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/hhdaten/grunddaten.xlsx
+++ b/hhdaten/grunddaten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="7200" windowHeight="12225" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="7200" windowHeight="12225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="gde" sheetId="1" r:id="rId1"/>
@@ -96,9 +96,6 @@
     <t>Ortsbürgermeister</t>
   </si>
   <si>
-    <t>kred_zinslos</t>
-  </si>
-  <si>
     <t>wg_invest</t>
   </si>
   <si>
@@ -108,15 +105,6 @@
     <t>hhj</t>
   </si>
   <si>
-    <t>grst_a</t>
-  </si>
-  <si>
-    <t>grst_b</t>
-  </si>
-  <si>
-    <t>gewst</t>
-  </si>
-  <si>
     <t>hust_1</t>
   </si>
   <si>
@@ -129,9 +117,6 @@
     <t>hust_gef</t>
   </si>
   <si>
-    <t>ve_ohne_kredit</t>
-  </si>
-  <si>
     <t>beschluss_vorjahr</t>
   </si>
   <si>
@@ -247,6 +232,21 @@
   </si>
   <si>
     <t>18-20 Jahre</t>
+  </si>
+  <si>
+    <t>hebesatz_grsta</t>
+  </si>
+  <si>
+    <t>hebesatz_grstb</t>
+  </si>
+  <si>
+    <t>hebesatz_gewst</t>
+  </si>
+  <si>
+    <t>ikred_zinslos</t>
+  </si>
+  <si>
+    <t>ve_kredfin</t>
   </si>
 </sst>
 </file>
@@ -639,7 +639,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -846,31 +846,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
         <v>40</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1134,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,49 +1150,49 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
         <v>32</v>
-      </c>
-      <c r="I1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1202,8 +1202,47 @@
       <c r="B2">
         <v>2020</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
       <c r="L2">
         <v>100000</v>
+      </c>
+      <c r="M2" s="3">
+        <v>44541</v>
+      </c>
+      <c r="N2" s="2">
+        <v>44197</v>
+      </c>
+      <c r="O2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2">
+        <v>44716</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1213,8 +1252,47 @@
       <c r="B3">
         <v>2020</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
       <c r="L3">
         <v>50000</v>
+      </c>
+      <c r="M3" s="3">
+        <v>44541</v>
+      </c>
+      <c r="N3" s="2">
+        <v>44197</v>
+      </c>
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>44717</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1224,8 +1302,47 @@
       <c r="B4">
         <v>2020</v>
       </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
       <c r="L4">
         <v>50000</v>
+      </c>
+      <c r="M4" s="3">
+        <v>44541</v>
+      </c>
+      <c r="N4" s="2">
+        <v>44197</v>
+      </c>
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>44718</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1235,8 +1352,47 @@
       <c r="B5">
         <v>2020</v>
       </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
       <c r="L5">
         <v>50000</v>
+      </c>
+      <c r="M5" s="3">
+        <v>44541</v>
+      </c>
+      <c r="N5" s="2">
+        <v>44197</v>
+      </c>
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>44719</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1246,8 +1402,47 @@
       <c r="B6">
         <v>2020</v>
       </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
       <c r="L6">
         <v>50000</v>
+      </c>
+      <c r="M6" s="3">
+        <v>44541</v>
+      </c>
+      <c r="N6" s="2">
+        <v>44197</v>
+      </c>
+      <c r="O6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>44720</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1257,9 +1452,48 @@
       <c r="B7">
         <v>2020</v>
       </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
       <c r="L7">
         <v>50000</v>
       </c>
+      <c r="M7" s="3">
+        <v>44541</v>
+      </c>
+      <c r="N7" s="2">
+        <v>44197</v>
+      </c>
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>44721</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1268,8 +1502,47 @@
       <c r="B8">
         <v>2020</v>
       </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
       <c r="L8">
         <v>50000</v>
+      </c>
+      <c r="M8" s="3">
+        <v>44541</v>
+      </c>
+      <c r="N8" s="2">
+        <v>44197</v>
+      </c>
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>44722</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1279,8 +1552,47 @@
       <c r="B9">
         <v>2021</v>
       </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
       <c r="L9">
         <v>100000</v>
+      </c>
+      <c r="M9" s="3">
+        <v>44541</v>
+      </c>
+      <c r="N9" s="2">
+        <v>44197</v>
+      </c>
+      <c r="O9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
+        <v>44723</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1290,8 +1602,47 @@
       <c r="B10">
         <v>2021</v>
       </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
       <c r="L10">
         <v>50000</v>
+      </c>
+      <c r="M10" s="3">
+        <v>44541</v>
+      </c>
+      <c r="N10" s="2">
+        <v>44197</v>
+      </c>
+      <c r="O10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>44724</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1301,8 +1652,47 @@
       <c r="B11">
         <v>2021</v>
       </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
       <c r="L11">
         <v>50000</v>
+      </c>
+      <c r="M11" s="3">
+        <v>44541</v>
+      </c>
+      <c r="N11" s="2">
+        <v>44197</v>
+      </c>
+      <c r="O11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>44725</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1312,8 +1702,47 @@
       <c r="B12">
         <v>2021</v>
       </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
       <c r="L12">
         <v>50000</v>
+      </c>
+      <c r="M12" s="3">
+        <v>44541</v>
+      </c>
+      <c r="N12" s="2">
+        <v>44197</v>
+      </c>
+      <c r="O12" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>44726</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1323,8 +1752,47 @@
       <c r="B13">
         <v>2021</v>
       </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
       <c r="L13">
         <v>50000</v>
+      </c>
+      <c r="M13" s="3">
+        <v>44541</v>
+      </c>
+      <c r="N13" s="2">
+        <v>44197</v>
+      </c>
+      <c r="O13" t="b">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>44727</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1334,9 +1802,48 @@
       <c r="B14">
         <v>2021</v>
       </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
       <c r="L14">
         <v>50000</v>
       </c>
+      <c r="M14" s="3">
+        <v>44541</v>
+      </c>
+      <c r="N14" s="2">
+        <v>44197</v>
+      </c>
+      <c r="O14" t="b">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>44728</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1345,8 +1852,47 @@
       <c r="B15">
         <v>2021</v>
       </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
       <c r="L15">
         <v>50000</v>
+      </c>
+      <c r="M15" s="3">
+        <v>44541</v>
+      </c>
+      <c r="N15" s="2">
+        <v>44197</v>
+      </c>
+      <c r="O15" t="b">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>44729</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1356,88 +1902,400 @@
       <c r="B16">
         <v>2022</v>
       </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
       <c r="L16">
         <v>100000</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M16" s="3">
+        <v>44541</v>
+      </c>
+      <c r="N16" s="2">
+        <v>44197</v>
+      </c>
+      <c r="O16" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16" s="2">
+        <v>44730</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10</v>
       </c>
       <c r="B17">
         <v>2022</v>
       </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
       <c r="L17">
         <v>50000</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M17" s="3">
+        <v>44541</v>
+      </c>
+      <c r="N17" s="2">
+        <v>44197</v>
+      </c>
+      <c r="O17" t="b">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>44731</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>20</v>
       </c>
       <c r="B18">
         <v>2022</v>
       </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
       <c r="L18">
         <v>50000</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M18" s="3">
+        <v>44541</v>
+      </c>
+      <c r="N18" s="2">
+        <v>44197</v>
+      </c>
+      <c r="O18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <v>44732</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>30</v>
       </c>
       <c r="B19">
         <v>2022</v>
       </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
       <c r="L19">
         <v>50000</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M19" s="3">
+        <v>44541</v>
+      </c>
+      <c r="N19" s="2">
+        <v>44197</v>
+      </c>
+      <c r="O19" t="b">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
+        <v>44733</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>40</v>
       </c>
       <c r="B20">
         <v>2022</v>
       </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
       <c r="L20">
         <v>50000</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M20" s="3">
+        <v>44541</v>
+      </c>
+      <c r="N20" s="2">
+        <v>44197</v>
+      </c>
+      <c r="O20" t="b">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <v>44734</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>50</v>
       </c>
       <c r="B21">
         <v>2022</v>
       </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
       <c r="L21">
         <v>50000</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M21" s="3">
+        <v>44541</v>
+      </c>
+      <c r="N21" s="2">
+        <v>44197</v>
+      </c>
+      <c r="O21" t="b">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
+        <v>44735</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>60</v>
       </c>
       <c r="B22">
         <v>2022</v>
       </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
       <c r="L22">
         <v>50000</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M22" s="3">
+        <v>44541</v>
+      </c>
+      <c r="N22" s="2">
+        <v>44197</v>
+      </c>
+      <c r="O22" t="b">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
+        <v>44736</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23">
         <v>2023</v>
       </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
       <c r="L23">
         <v>100000</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M23" s="3">
+        <v>44541</v>
+      </c>
+      <c r="N23" s="2">
+        <v>44197</v>
+      </c>
+      <c r="O23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" s="2">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10</v>
       </c>
@@ -1476,11 +2334,20 @@
       <c r="L24">
         <v>50000</v>
       </c>
+      <c r="M24" s="3">
+        <v>44541</v>
+      </c>
+      <c r="N24" s="2">
+        <v>44197</v>
+      </c>
       <c r="O24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24" s="2">
+        <v>44738</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20</v>
       </c>
@@ -1519,11 +2386,20 @@
       <c r="L25">
         <v>50000</v>
       </c>
+      <c r="M25" s="3">
+        <v>44541</v>
+      </c>
+      <c r="N25" s="2">
+        <v>44197</v>
+      </c>
       <c r="O25" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25" s="2">
+        <v>44739</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>30</v>
       </c>
@@ -1562,11 +2438,20 @@
       <c r="L26">
         <v>50000</v>
       </c>
+      <c r="M26" s="3">
+        <v>44541</v>
+      </c>
+      <c r="N26" s="2">
+        <v>44197</v>
+      </c>
       <c r="O26" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26" s="2">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>40</v>
       </c>
@@ -1605,11 +2490,20 @@
       <c r="L27">
         <v>50000</v>
       </c>
+      <c r="M27" s="3">
+        <v>44541</v>
+      </c>
+      <c r="N27" s="2">
+        <v>44197</v>
+      </c>
       <c r="O27" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27" s="2">
+        <v>44741</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>50</v>
       </c>
@@ -1648,11 +2542,20 @@
       <c r="L28">
         <v>50000</v>
       </c>
+      <c r="M28" s="3">
+        <v>44541</v>
+      </c>
+      <c r="N28" s="2">
+        <v>44197</v>
+      </c>
       <c r="O28" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28" s="2">
+        <v>44742</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>60</v>
       </c>
@@ -1699,6 +2602,9 @@
       </c>
       <c r="O29" t="b">
         <v>0</v>
+      </c>
+      <c r="P29" s="2">
+        <v>44743</v>
       </c>
     </row>
   </sheetData>
@@ -1711,7 +2617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
@@ -1722,16 +2628,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1742,7 +2648,7 @@
         <v>44742</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D2">
         <v>2042</v>
@@ -1759,7 +2665,7 @@
         <v>44742</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D3">
         <v>108</v>
@@ -1776,7 +2682,7 @@
         <v>44742</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D4">
         <v>45</v>
@@ -1793,7 +2699,7 @@
         <v>44742</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1810,7 +2716,7 @@
         <v>44377</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D6">
         <v>2054</v>
@@ -1827,7 +2733,7 @@
         <v>44377</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D7">
         <v>108</v>
@@ -1844,7 +2750,7 @@
         <v>44377</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D8">
         <v>43</v>
@@ -1861,7 +2767,7 @@
         <v>44377</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1878,7 +2784,7 @@
         <v>44012</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D10">
         <v>2020</v>
@@ -1895,7 +2801,7 @@
         <v>44012</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -1912,7 +2818,7 @@
         <v>44012</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D12">
         <v>13</v>
@@ -1929,7 +2835,7 @@
         <v>44012</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D13">
         <v>14</v>
@@ -1946,7 +2852,7 @@
         <v>43646</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D14">
         <v>2019</v>
@@ -1963,7 +2869,7 @@
         <v>43646</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D15">
         <v>12</v>
@@ -1980,7 +2886,7 @@
         <v>43646</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D16">
         <v>13</v>
@@ -1997,7 +2903,7 @@
         <v>43646</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D17">
         <v>14</v>
@@ -2014,7 +2920,7 @@
         <v>43281</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D18">
         <v>2018</v>
@@ -2031,7 +2937,7 @@
         <v>43281</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D19">
         <v>12</v>
@@ -2048,7 +2954,7 @@
         <v>43281</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D20">
         <v>13</v>
@@ -2065,7 +2971,7 @@
         <v>43281</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D21">
         <v>14</v>
@@ -2082,7 +2988,7 @@
         <v>42916</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D22">
         <v>2017</v>
@@ -2099,7 +3005,7 @@
         <v>42916</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D23">
         <v>12</v>
@@ -2116,7 +3022,7 @@
         <v>42916</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D24">
         <v>13</v>
@@ -2133,7 +3039,7 @@
         <v>42916</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D25">
         <v>14</v>
@@ -2150,7 +3056,7 @@
         <v>42551</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D26">
         <v>2089</v>
@@ -2167,7 +3073,7 @@
         <v>42551</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D27">
         <v>101</v>
@@ -2184,7 +3090,7 @@
         <v>42551</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D28">
         <v>38</v>
@@ -2201,7 +3107,7 @@
         <v>42551</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2218,7 +3124,7 @@
         <v>42185</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D30">
         <v>2015</v>
@@ -2235,7 +3141,7 @@
         <v>42185</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D31">
         <v>12</v>
@@ -2252,7 +3158,7 @@
         <v>42185</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D32">
         <v>13</v>
@@ -2269,7 +3175,7 @@
         <v>42185</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D33">
         <v>14</v>
@@ -2295,19 +3201,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2318,7 +3224,7 @@
         <v>44742</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D2">
         <v>164</v>
@@ -2335,7 +3241,7 @@
         <v>44742</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>183</v>
@@ -2352,7 +3258,7 @@
         <v>44742</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>225</v>
@@ -2369,7 +3275,7 @@
         <v>44742</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D5">
         <v>243</v>
@@ -2386,7 +3292,7 @@
         <v>44742</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D6">
         <v>209</v>
@@ -2403,7 +3309,7 @@
         <v>44742</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D7">
         <v>370</v>
@@ -2420,7 +3326,7 @@
         <v>44742</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D8">
         <v>295</v>
@@ -2437,7 +3343,7 @@
         <v>44742</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D9">
         <v>199</v>
@@ -2454,7 +3360,7 @@
         <v>44742</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D10">
         <v>133</v>
@@ -2471,7 +3377,7 @@
         <v>44742</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D11">
         <v>20</v>
@@ -2488,7 +3394,7 @@
         <v>44742</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2505,7 +3411,7 @@
         <v>44377</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D13">
         <v>162</v>
@@ -2522,7 +3428,7 @@
         <v>44377</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D14">
         <v>184</v>
@@ -2539,7 +3445,7 @@
         <v>44377</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D15">
         <v>243</v>
@@ -2556,7 +3462,7 @@
         <v>44377</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D16">
         <v>237</v>
@@ -2573,7 +3479,7 @@
         <v>44377</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D17">
         <v>206</v>
@@ -2590,7 +3496,7 @@
         <v>44377</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D18">
         <v>384</v>
@@ -2607,7 +3513,7 @@
         <v>44377</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D19">
         <v>291</v>
@@ -2624,7 +3530,7 @@
         <v>44377</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D20">
         <v>196</v>
@@ -2641,7 +3547,7 @@
         <v>44377</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D21">
         <v>125</v>
@@ -2658,7 +3564,7 @@
         <v>44377</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D22">
         <v>25</v>
@@ -2675,7 +3581,7 @@
         <v>44377</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2692,7 +3598,7 @@
         <v>44012</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2703,7 +3609,7 @@
         <v>44012</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2714,7 +3620,7 @@
         <v>44012</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2725,7 +3631,7 @@
         <v>44012</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2736,7 +3642,7 @@
         <v>44012</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2747,7 +3653,7 @@
         <v>44012</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2758,7 +3664,7 @@
         <v>44012</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2769,7 +3675,7 @@
         <v>44012</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2780,7 +3686,7 @@
         <v>44012</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2791,7 +3697,7 @@
         <v>44012</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2802,7 +3708,7 @@
         <v>44012</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2813,7 +3719,7 @@
         <v>43646</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2824,7 +3730,7 @@
         <v>43646</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2835,7 +3741,7 @@
         <v>43646</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2846,7 +3752,7 @@
         <v>43646</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2857,7 +3763,7 @@
         <v>43646</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2868,7 +3774,7 @@
         <v>43646</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2879,7 +3785,7 @@
         <v>43646</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2890,7 +3796,7 @@
         <v>43646</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2901,7 +3807,7 @@
         <v>43646</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2912,7 +3818,7 @@
         <v>43646</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2923,7 +3829,7 @@
         <v>43646</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2934,7 +3840,7 @@
         <v>43281</v>
       </c>
       <c r="C46" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2945,7 +3851,7 @@
         <v>43281</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2956,7 +3862,7 @@
         <v>43281</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -2967,7 +3873,7 @@
         <v>43281</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -2978,7 +3884,7 @@
         <v>43281</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -2989,7 +3895,7 @@
         <v>43281</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -3000,7 +3906,7 @@
         <v>43281</v>
       </c>
       <c r="C52" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -3011,7 +3917,7 @@
         <v>43281</v>
       </c>
       <c r="C53" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -3022,7 +3928,7 @@
         <v>43281</v>
       </c>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -3033,7 +3939,7 @@
         <v>43281</v>
       </c>
       <c r="C55" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -3044,7 +3950,7 @@
         <v>43281</v>
       </c>
       <c r="C56" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -3055,7 +3961,7 @@
         <v>42916</v>
       </c>
       <c r="C57" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -3066,7 +3972,7 @@
         <v>42916</v>
       </c>
       <c r="C58" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -3077,7 +3983,7 @@
         <v>42916</v>
       </c>
       <c r="C59" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -3088,7 +3994,7 @@
         <v>42916</v>
       </c>
       <c r="C60" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -3099,7 +4005,7 @@
         <v>42916</v>
       </c>
       <c r="C61" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -3110,7 +4016,7 @@
         <v>42916</v>
       </c>
       <c r="C62" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -3121,7 +4027,7 @@
         <v>42916</v>
       </c>
       <c r="C63" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -3132,7 +4038,7 @@
         <v>42916</v>
       </c>
       <c r="C64" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -3143,7 +4049,7 @@
         <v>42916</v>
       </c>
       <c r="C65" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -3154,7 +4060,7 @@
         <v>42916</v>
       </c>
       <c r="C66" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3165,7 +4071,7 @@
         <v>42916</v>
       </c>
       <c r="C67" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -3176,7 +4082,7 @@
         <v>42551</v>
       </c>
       <c r="C68" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D68">
         <v>147</v>
@@ -3193,7 +4099,7 @@
         <v>42551</v>
       </c>
       <c r="C69" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D69">
         <v>203</v>
@@ -3210,7 +4116,7 @@
         <v>42551</v>
       </c>
       <c r="C70" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D70">
         <v>274</v>
@@ -3227,7 +4133,7 @@
         <v>42551</v>
       </c>
       <c r="C71" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D71">
         <v>208</v>
@@ -3244,7 +4150,7 @@
         <v>42551</v>
       </c>
       <c r="C72" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D72">
         <v>286</v>
@@ -3261,7 +4167,7 @@
         <v>42551</v>
       </c>
       <c r="C73" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D73">
         <v>370</v>
@@ -3278,7 +4184,7 @@
         <v>42551</v>
       </c>
       <c r="C74" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D74">
         <v>280</v>
@@ -3295,7 +4201,7 @@
         <v>42551</v>
       </c>
       <c r="C75" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D75">
         <v>207</v>
@@ -3312,7 +4218,7 @@
         <v>42551</v>
       </c>
       <c r="C76" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D76">
         <v>99</v>
@@ -3329,7 +4235,7 @@
         <v>42551</v>
       </c>
       <c r="C77" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D77">
         <v>15</v>
@@ -3346,7 +4252,7 @@
         <v>42551</v>
       </c>
       <c r="C78" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -3363,7 +4269,7 @@
         <v>42185</v>
       </c>
       <c r="C79" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -3374,7 +4280,7 @@
         <v>42185</v>
       </c>
       <c r="C80" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -3385,7 +4291,7 @@
         <v>42185</v>
       </c>
       <c r="C81" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -3396,7 +4302,7 @@
         <v>42185</v>
       </c>
       <c r="C82" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -3407,7 +4313,7 @@
         <v>42185</v>
       </c>
       <c r="C83" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -3418,7 +4324,7 @@
         <v>42185</v>
       </c>
       <c r="C84" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -3429,7 +4335,7 @@
         <v>42185</v>
       </c>
       <c r="C85" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -3440,7 +4346,7 @@
         <v>42185</v>
       </c>
       <c r="C86" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -3451,7 +4357,7 @@
         <v>42185</v>
       </c>
       <c r="C87" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -3462,7 +4368,7 @@
         <v>42185</v>
       </c>
       <c r="C88" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -3473,7 +4379,7 @@
         <v>42185</v>
       </c>
       <c r="C89" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3493,19 +4399,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3516,7 +4422,7 @@
         <v>44742</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D2">
         <v>62</v>
@@ -3533,7 +4439,7 @@
         <v>44742</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D3">
         <v>38</v>
@@ -3550,7 +4456,7 @@
         <v>44742</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D4">
         <v>164</v>
@@ -3567,7 +4473,7 @@
         <v>44742</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D5">
         <v>41</v>
@@ -3584,7 +4490,7 @@
         <v>44742</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D6">
         <v>61</v>
@@ -3601,7 +4507,7 @@
         <v>44377</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D7">
         <v>57</v>
@@ -3618,7 +4524,7 @@
         <v>44377</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D8">
         <v>41</v>
@@ -3635,7 +4541,7 @@
         <v>44377</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D9">
         <v>170</v>
@@ -3652,7 +4558,7 @@
         <v>44377</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D10">
         <v>32</v>
@@ -3669,7 +4575,7 @@
         <v>44377</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D11">
         <v>64</v>
@@ -3686,7 +4592,7 @@
         <v>44012</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3697,7 +4603,7 @@
         <v>44012</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3708,7 +4614,7 @@
         <v>44012</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3719,7 +4625,7 @@
         <v>44012</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3730,7 +4636,7 @@
         <v>44012</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3741,7 +4647,7 @@
         <v>43646</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3752,7 +4658,7 @@
         <v>43646</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3763,7 +4669,7 @@
         <v>43646</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3774,7 +4680,7 @@
         <v>43646</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3785,7 +4691,7 @@
         <v>43646</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3796,7 +4702,7 @@
         <v>43281</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3807,7 +4713,7 @@
         <v>43281</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3818,7 +4724,7 @@
         <v>43281</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3829,7 +4735,7 @@
         <v>43281</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3840,7 +4746,7 @@
         <v>43281</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3851,7 +4757,7 @@
         <v>42916</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3862,7 +4768,7 @@
         <v>42916</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3873,7 +4779,7 @@
         <v>42916</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3884,7 +4790,7 @@
         <v>42916</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3895,7 +4801,7 @@
         <v>42916</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3906,7 +4812,7 @@
         <v>42551</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D32">
         <v>45</v>
@@ -3923,7 +4829,7 @@
         <v>42551</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D33">
         <v>38</v>
@@ -3940,7 +4846,7 @@
         <v>42551</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D34">
         <v>170</v>
@@ -3957,7 +4863,7 @@
         <v>42551</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D35">
         <v>47</v>
@@ -3974,7 +4880,7 @@
         <v>42551</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D36">
         <v>81</v>
@@ -3991,7 +4897,7 @@
         <v>42185</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -4002,7 +4908,7 @@
         <v>42185</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -4013,7 +4919,7 @@
         <v>42185</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -4024,7 +4930,7 @@
         <v>42185</v>
       </c>
       <c r="C40" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -4035,7 +4941,7 @@
         <v>42185</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/hhdaten/grunddaten.xlsx
+++ b/hhdaten/grunddaten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="7200" windowHeight="12225" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="7200" windowHeight="12225" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="gde" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,16 @@
     <sheet name="JAWerte" sheetId="7" r:id="rId11"/>
     <sheet name="Tabelle3" sheetId="8" r:id="rId12"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">e_u20!$A$1:$J$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">ew_einzuschulend!$A$1:$K$73</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="574">
   <si>
     <t>gdenr</t>
   </si>
@@ -247,6 +251,1506 @@
   </si>
   <si>
     <t>ve_kredfin</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Nutzungsart</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>Aggregationseintrag</t>
+  </si>
+  <si>
+    <t>Grundeintrag</t>
+  </si>
+  <si>
+    <t>km²</t>
+  </si>
+  <si>
+    <t>Anteil</t>
+  </si>
+  <si>
+    <t>Anteil vgl. OG</t>
+  </si>
+  <si>
+    <t>12/31/2021</t>
+  </si>
+  <si>
+    <t>Bodenfläche insgesamt</t>
+  </si>
+  <si>
+    <t>Insgesamt</t>
+  </si>
+  <si>
+    <t>Siedlung</t>
+  </si>
+  <si>
+    <t>Wohnbaufläche</t>
+  </si>
+  <si>
+    <t>Industrie- und Gewerbefläche</t>
+  </si>
+  <si>
+    <t>Sport-, Freizeit- und Erholungsfläche</t>
+  </si>
+  <si>
+    <t>Sonstige</t>
+  </si>
+  <si>
+    <t>Verkehr</t>
+  </si>
+  <si>
+    <t>Straßenverkehr</t>
+  </si>
+  <si>
+    <t>Weg</t>
+  </si>
+  <si>
+    <t>Vegetation</t>
+  </si>
+  <si>
+    <t>Landwirtschaft</t>
+  </si>
+  <si>
+    <t>Wald</t>
+  </si>
+  <si>
+    <t>Gewässer</t>
+  </si>
+  <si>
+    <t>13207076_30062011.csv</t>
+  </si>
+  <si>
+    <t>2012 (geb.: 01.09.2005 bis 31.08.2006)</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>0,49</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>0,267</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>0,758</t>
+  </si>
+  <si>
+    <t>2013 (geb.: 01.09.2006 bis 31.08.2007)</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>0,379</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>0,29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>0,669</t>
+  </si>
+  <si>
+    <t>2014 (geb.: 01.09.2007 bis 31.08.2008)</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>0,334</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>0,713</t>
+  </si>
+  <si>
+    <t>2015 (geb.: 01.09.2008 bis 31.08.2009)</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>0,156</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>0,535</t>
+  </si>
+  <si>
+    <t>2016 (geb.: 01.09.2009 bis 31.08.2010)</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>0,312</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>0,223</t>
+  </si>
+  <si>
+    <t>2017 (geb.: 01.09.2010 bis 31.08.2011)</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>0,201</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>0,178</t>
+  </si>
+  <si>
+    <t>gesamt</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>2,14</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>13207076_30062012.csv</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>0,407</t>
+  </si>
+  <si>
+    <t>0,339</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>0,746</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>0,362</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>0,701</t>
+  </si>
+  <si>
+    <t>0,181</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>0,588</t>
+  </si>
+  <si>
+    <t>0,294</t>
+  </si>
+  <si>
+    <t>0,271</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>0,565</t>
+  </si>
+  <si>
+    <t>0,226</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>0,249</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>0,475</t>
+  </si>
+  <si>
+    <t>2018 (geb.: 01.09.2011 bis 31.08.2012)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>0,136</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>1,514</t>
+  </si>
+  <si>
+    <t>13207076_30062013.csv</t>
+  </si>
+  <si>
+    <t>0,413</t>
+  </si>
+  <si>
+    <t>0,344</t>
+  </si>
+  <si>
+    <t>0,757</t>
+  </si>
+  <si>
+    <t>0,206</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>0,619</t>
+  </si>
+  <si>
+    <t>0,321</t>
+  </si>
+  <si>
+    <t>0,298</t>
+  </si>
+  <si>
+    <t>0,252</t>
+  </si>
+  <si>
+    <t>0,275</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>0,527</t>
+  </si>
+  <si>
+    <t>0,229</t>
+  </si>
+  <si>
+    <t>0,55</t>
+  </si>
+  <si>
+    <t>2019 (geb.: 01.09.2012 bis 31.08.2013)</t>
+  </si>
+  <si>
+    <t>0,183</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>0,436</t>
+  </si>
+  <si>
+    <t>1,972</t>
+  </si>
+  <si>
+    <t>13207076_30062014.csv</t>
+  </si>
+  <si>
+    <t>0,392</t>
+  </si>
+  <si>
+    <t>0,231</t>
+  </si>
+  <si>
+    <t>0,623</t>
+  </si>
+  <si>
+    <t>0,3</t>
+  </si>
+  <si>
+    <t>0,6</t>
+  </si>
+  <si>
+    <t>0,531</t>
+  </si>
+  <si>
+    <t>0,346</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>0,646</t>
+  </si>
+  <si>
+    <t>0,138</t>
+  </si>
+  <si>
+    <t>0,438</t>
+  </si>
+  <si>
+    <t>2020 (geb.: 01.09.2013 bis 31.08.2014)</t>
+  </si>
+  <si>
+    <t>0,185</t>
+  </si>
+  <si>
+    <t>0,162</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>1,431</t>
+  </si>
+  <si>
+    <t>13207076_30062015.csv</t>
+  </si>
+  <si>
+    <t>0,324</t>
+  </si>
+  <si>
+    <t>0,649</t>
+  </si>
+  <si>
+    <t>0,232</t>
+  </si>
+  <si>
+    <t>0,278</t>
+  </si>
+  <si>
+    <t>0,51</t>
+  </si>
+  <si>
+    <t>0,301</t>
+  </si>
+  <si>
+    <t>0,579</t>
+  </si>
+  <si>
+    <t>0,347</t>
+  </si>
+  <si>
+    <t>0,255</t>
+  </si>
+  <si>
+    <t>0,486</t>
+  </si>
+  <si>
+    <t>2021 (geb.: 01.09.2014 bis 31.08.2015)</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>0,463</t>
+  </si>
+  <si>
+    <t>0,788</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>13207076_30062016.csv</t>
+  </si>
+  <si>
+    <t>0,258</t>
+  </si>
+  <si>
+    <t>0,235</t>
+  </si>
+  <si>
+    <t>0,493</t>
+  </si>
+  <si>
+    <t>0,282</t>
+  </si>
+  <si>
+    <t>0,305</t>
+  </si>
+  <si>
+    <t>0,587</t>
+  </si>
+  <si>
+    <t>0,164</t>
+  </si>
+  <si>
+    <t>0,47</t>
+  </si>
+  <si>
+    <t>0,54</t>
+  </si>
+  <si>
+    <t>0,446</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>0,986</t>
+  </si>
+  <si>
+    <t>2022 (geb.: 01.09.2015 bis 31.08.2016)</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>1,714</t>
+  </si>
+  <si>
+    <t>13207076_30062017.csv</t>
+  </si>
+  <si>
+    <t>0,306</t>
+  </si>
+  <si>
+    <t>0,612</t>
+  </si>
+  <si>
+    <t>0,33</t>
+  </si>
+  <si>
+    <t>0,141</t>
+  </si>
+  <si>
+    <t>0,471</t>
+  </si>
+  <si>
+    <t>0,212</t>
+  </si>
+  <si>
+    <t>0,518</t>
+  </si>
+  <si>
+    <t>0,495</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>0,966</t>
+  </si>
+  <si>
+    <t>0,283</t>
+  </si>
+  <si>
+    <t>0,353</t>
+  </si>
+  <si>
+    <t>0,636</t>
+  </si>
+  <si>
+    <t>2023 (geb.: 01.09.2016 bis 31.08.2017)</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>13207076_30062018.csv</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0,119</t>
+  </si>
+  <si>
+    <t>0,453</t>
+  </si>
+  <si>
+    <t>0,215</t>
+  </si>
+  <si>
+    <t>0,31</t>
+  </si>
+  <si>
+    <t>0,525</t>
+  </si>
+  <si>
+    <t>0,549</t>
+  </si>
+  <si>
+    <t>0,43</t>
+  </si>
+  <si>
+    <t>0,979</t>
+  </si>
+  <si>
+    <t>0,382</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>0,692</t>
+  </si>
+  <si>
+    <t>0,286</t>
+  </si>
+  <si>
+    <t>0,573</t>
+  </si>
+  <si>
+    <t>2024 (geb.: 01.09.2017 bis 31.08.2018)</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>13207076_30062019 (2).csv</t>
+  </si>
+  <si>
+    <t>0,241</t>
+  </si>
+  <si>
+    <t>0,314</t>
+  </si>
+  <si>
+    <t>0,555</t>
+  </si>
+  <si>
+    <t>0,458</t>
+  </si>
+  <si>
+    <t>0,989</t>
+  </si>
+  <si>
+    <t>0,338</t>
+  </si>
+  <si>
+    <t>0,651</t>
+  </si>
+  <si>
+    <t>0,627</t>
+  </si>
+  <si>
+    <t>0,193</t>
+  </si>
+  <si>
+    <t>2025 (geb.: 01.09.2018 bis 31.08.2019)</t>
+  </si>
+  <si>
+    <t>0,265</t>
+  </si>
+  <si>
+    <t>0,507</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>13207076_30062020 (1).csv</t>
+  </si>
+  <si>
+    <t>0,553</t>
+  </si>
+  <si>
+    <t>0,457</t>
+  </si>
+  <si>
+    <t>1,01</t>
+  </si>
+  <si>
+    <t>0,361</t>
+  </si>
+  <si>
+    <t>0,313</t>
+  </si>
+  <si>
+    <t>0,673</t>
+  </si>
+  <si>
+    <t>0,625</t>
+  </si>
+  <si>
+    <t>0,216</t>
+  </si>
+  <si>
+    <t>0,577</t>
+  </si>
+  <si>
+    <t>0,409</t>
+  </si>
+  <si>
+    <t>0,385</t>
+  </si>
+  <si>
+    <t>0,793</t>
+  </si>
+  <si>
+    <t>2026 (geb.: 01.09.2019 bis 31.08.2020)</t>
+  </si>
+  <si>
+    <t>0,24</t>
+  </si>
+  <si>
+    <t>0,289</t>
+  </si>
+  <si>
+    <t>0,529</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>13207076_30062021.csv</t>
+  </si>
+  <si>
+    <t>0,36</t>
+  </si>
+  <si>
+    <t>0,336</t>
+  </si>
+  <si>
+    <t>0,697</t>
+  </si>
+  <si>
+    <t>0,288</t>
+  </si>
+  <si>
+    <t>0,384</t>
+  </si>
+  <si>
+    <t>0,432</t>
+  </si>
+  <si>
+    <t>0,817</t>
+  </si>
+  <si>
+    <t>2027 (geb.: 01.09.2020 bis 31.08.2021)</t>
+  </si>
+  <si>
+    <t>0,481</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>13207076_30062022.csv</t>
+  </si>
+  <si>
+    <t>0,412</t>
+  </si>
+  <si>
+    <t>0,702</t>
+  </si>
+  <si>
+    <t>0,266</t>
+  </si>
+  <si>
+    <t>0,533</t>
+  </si>
+  <si>
+    <t>0,387</t>
+  </si>
+  <si>
+    <t>0,46</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>0,847</t>
+  </si>
+  <si>
+    <t>0,799</t>
+  </si>
+  <si>
+    <t>0,654</t>
+  </si>
+  <si>
+    <t>0,242</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>0,896</t>
+  </si>
+  <si>
+    <t>2028 (geb.: 01.09.2021 bis 31.08.2022)</t>
+  </si>
+  <si>
+    <t>0,169</t>
+  </si>
+  <si>
+    <t>0,557</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Date_of_stat</t>
+  </si>
+  <si>
+    <t>einzuschulend_in</t>
+  </si>
+  <si>
+    <t>text_einzuschulend</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>1,003</t>
+  </si>
+  <si>
+    <t>0,602</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>1,605</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>1,226</t>
+  </si>
+  <si>
+    <t>0,914</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>4,702</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>5,014</t>
+  </si>
+  <si>
+    <t>436</t>
+  </si>
+  <si>
+    <t>9,717</t>
+  </si>
+  <si>
+    <t>1,382</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>1,047</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>2,429</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>2,229</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>1,649</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>3,878</t>
+  </si>
+  <si>
+    <t>0,791</t>
+  </si>
+  <si>
+    <t>0,678</t>
+  </si>
+  <si>
+    <t>1,469</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>1,266</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>0,904</t>
+  </si>
+  <si>
+    <t>2,169</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>4,407</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>4,701</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>9,107</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>1,333</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>1,311</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>2,644</t>
+  </si>
+  <si>
+    <t>2,26</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>3,729</t>
+  </si>
+  <si>
+    <t>0,917</t>
+  </si>
+  <si>
+    <t>0,779</t>
+  </si>
+  <si>
+    <t>1,696</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>1,123</t>
+  </si>
+  <si>
+    <t>1,88</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>4,402</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>4,493</t>
+  </si>
+  <si>
+    <t>388</t>
+  </si>
+  <si>
+    <t>8,895</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>1,055</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>1,398</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>2,453</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>1,467</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>3,347</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>0,877</t>
+  </si>
+  <si>
+    <t>0,715</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>1,592</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>0,992</t>
+  </si>
+  <si>
+    <t>0,785</t>
+  </si>
+  <si>
+    <t>1,777</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>4,293</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>4,085</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>8,378</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>1,015</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>2,446</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>2,077</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>1,731</t>
+  </si>
+  <si>
+    <t>3,808</t>
+  </si>
+  <si>
+    <t>1,089</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>0,834</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>1,923</t>
+  </si>
+  <si>
+    <t>1,668</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>4,193</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>3,868</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>8,061</t>
+  </si>
+  <si>
+    <t>1,344</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>1,251</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>2,594</t>
+  </si>
+  <si>
+    <t>1,853</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>3,567</t>
+  </si>
+  <si>
+    <t>1,057</t>
+  </si>
+  <si>
+    <t>2,066</t>
+  </si>
+  <si>
+    <t>0,892</t>
+  </si>
+  <si>
+    <t>0,822</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>3,992</t>
+  </si>
+  <si>
+    <t>3,616</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>7,607</t>
+  </si>
+  <si>
+    <t>1,104</t>
+  </si>
+  <si>
+    <t>1,033</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>2,137</t>
+  </si>
+  <si>
+    <t>1,902</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>3,804</t>
+  </si>
+  <si>
+    <t>1,107</t>
+  </si>
+  <si>
+    <t>1,083</t>
+  </si>
+  <si>
+    <t>2,19</t>
+  </si>
+  <si>
+    <t>0,848</t>
+  </si>
+  <si>
+    <t>0,801</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>4,027</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>3,462</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>7,489</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>0,919</t>
+  </si>
+  <si>
+    <t>1,719</t>
+  </si>
+  <si>
+    <t>1,861</t>
+  </si>
+  <si>
+    <t>1,955</t>
+  </si>
+  <si>
+    <t>3,815</t>
+  </si>
+  <si>
+    <t>1,074</t>
+  </si>
+  <si>
+    <t>0,931</t>
+  </si>
+  <si>
+    <t>2,005</t>
+  </si>
+  <si>
+    <t>0,835</t>
+  </si>
+  <si>
+    <t>1,909</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>3,914</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>3,317</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>7,232</t>
+  </si>
+  <si>
+    <t>0,907</t>
+  </si>
+  <si>
+    <t>1,885</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>1,862</t>
+  </si>
+  <si>
+    <t>3,747</t>
+  </si>
+  <si>
+    <t>0,941</t>
+  </si>
+  <si>
+    <t>0,844</t>
+  </si>
+  <si>
+    <t>1,785</t>
+  </si>
+  <si>
+    <t>1,134</t>
+  </si>
+  <si>
+    <t>1,013</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>2,147</t>
+  </si>
+  <si>
+    <t>3,811</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>3,208</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>7,019</t>
+  </si>
+  <si>
+    <t>1,11</t>
+  </si>
+  <si>
+    <t>0,868</t>
+  </si>
+  <si>
+    <t>1,978</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>1,52</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>1,447</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>2,967</t>
+  </si>
+  <si>
+    <t>1,058</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>1,25</t>
+  </si>
+  <si>
+    <t>1,106</t>
+  </si>
+  <si>
+    <t>2,356</t>
+  </si>
+  <si>
+    <t>3,775</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>3,126</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>6,901</t>
+  </si>
+  <si>
+    <t>0,938</t>
+  </si>
+  <si>
+    <t>1,395</t>
+  </si>
+  <si>
+    <t>1,515</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>2,909</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>1,37</t>
+  </si>
+  <si>
+    <t>1,009</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>2,379</t>
+  </si>
+  <si>
+    <t>0,985</t>
+  </si>
+  <si>
+    <t>2,018</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>3,099</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>7,184</t>
+  </si>
+  <si>
+    <t>0,769</t>
+  </si>
+  <si>
+    <t>0,745</t>
+  </si>
+  <si>
+    <t>1,538</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>1,225</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>2,763</t>
+  </si>
+  <si>
+    <t>1,501</t>
+  </si>
+  <si>
+    <t>0,944</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>2,445</t>
+  </si>
+  <si>
+    <t>0,92</t>
+  </si>
+  <si>
+    <t>1,138</t>
+  </si>
+  <si>
+    <t>2,058</t>
+  </si>
+  <si>
+    <t>3,97</t>
+  </si>
+  <si>
+    <t>3,22</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>7,19</t>
+  </si>
+  <si>
+    <t>1,695</t>
+  </si>
+  <si>
+    <t>1,477</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>2,614</t>
+  </si>
+  <si>
+    <t>zusammen</t>
+  </si>
+  <si>
+    <t>GDE</t>
+  </si>
+  <si>
+    <t>Anteilm</t>
+  </si>
+  <si>
+    <t>Anteilw</t>
+  </si>
+  <si>
+    <t>Anteilag</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>date_of_stat</t>
   </si>
 </sst>
 </file>
@@ -273,15 +1777,21 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -289,11 +1799,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -302,6 +1836,11 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -606,7 +2145,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="A25:C27"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,8 +2673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2618,10 +4157,14 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3193,8 +4736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E23"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89:E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4389,574 +5932,4746 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O7" sqref="O7:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" t="s">
-        <v>54</v>
-      </c>
       <c r="C1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>60</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="H1" t="s">
+        <v>570</v>
+      </c>
+      <c r="I1" t="s">
+        <v>567</v>
+      </c>
+      <c r="J1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="5">
+        <v>60</v>
+      </c>
+      <c r="C2" s="8">
+        <f>DATE(MID(A2,14,4),MID(A2,12,2),MID(A2,10,2))</f>
+        <v>40724</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="5">
+        <v>60</v>
+      </c>
+      <c r="C3" s="8">
+        <f t="shared" ref="C3:C56" si="0">DATE(MID(A3,14,4),MID(A3,12,2),MID(A3,10,2))</f>
+        <v>40724</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="5">
+        <v>60</v>
+      </c>
+      <c r="C4" s="8">
+        <f t="shared" si="0"/>
+        <v>40724</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="5">
+        <v>60</v>
+      </c>
+      <c r="C5" s="8">
+        <f t="shared" si="0"/>
+        <v>40724</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="5">
+        <v>60</v>
+      </c>
+      <c r="C6" s="8">
+        <f t="shared" si="0"/>
+        <v>40724</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="5">
+        <v>60</v>
+      </c>
+      <c r="C7" s="8">
+        <f t="shared" si="0"/>
+        <v>41090</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="5">
+        <v>60</v>
+      </c>
+      <c r="C8" s="8">
+        <f t="shared" si="0"/>
+        <v>41090</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="5">
+        <v>60</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" si="0"/>
+        <v>41090</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="5">
+        <v>60</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" si="0"/>
+        <v>41090</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="5">
+        <v>60</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>41090</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="5">
+        <v>60</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" si="0"/>
+        <v>41455</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="5">
+        <v>60</v>
+      </c>
+      <c r="C13" s="8">
+        <f t="shared" si="0"/>
+        <v>41455</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="5">
+        <v>60</v>
+      </c>
+      <c r="C14" s="8">
+        <f t="shared" si="0"/>
+        <v>41455</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" s="5">
+        <v>60</v>
+      </c>
+      <c r="C15" s="8">
+        <f t="shared" si="0"/>
+        <v>41455</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="5">
+        <v>60</v>
+      </c>
+      <c r="C16" s="8">
+        <f t="shared" si="0"/>
+        <v>41455</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="5">
+        <v>60</v>
+      </c>
+      <c r="C17" s="8">
+        <f t="shared" si="0"/>
+        <v>41820</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="5">
+        <v>60</v>
+      </c>
+      <c r="C18" s="8">
+        <f t="shared" si="0"/>
+        <v>41820</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" s="5">
+        <v>60</v>
+      </c>
+      <c r="C19" s="8">
+        <f t="shared" si="0"/>
+        <v>41820</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20" s="5">
+        <v>60</v>
+      </c>
+      <c r="C20" s="8">
+        <f t="shared" si="0"/>
+        <v>41820</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" s="5">
+        <v>60</v>
+      </c>
+      <c r="C21" s="8">
+        <f t="shared" si="0"/>
+        <v>41820</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B22" s="5">
+        <v>60</v>
+      </c>
+      <c r="C22" s="8">
+        <f t="shared" si="0"/>
+        <v>42185</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" s="5">
+        <v>60</v>
+      </c>
+      <c r="C23" s="8">
+        <f t="shared" si="0"/>
+        <v>42185</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" s="5">
+        <v>60</v>
+      </c>
+      <c r="C24" s="8">
+        <f t="shared" si="0"/>
+        <v>42185</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" s="5">
+        <v>60</v>
+      </c>
+      <c r="C25" s="8">
+        <f t="shared" si="0"/>
+        <v>42185</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B26" s="5">
+        <v>60</v>
+      </c>
+      <c r="C26" s="8">
+        <f t="shared" si="0"/>
+        <v>42185</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B27" s="5">
+        <v>60</v>
+      </c>
+      <c r="C27" s="8">
+        <f t="shared" si="0"/>
+        <v>42551</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B28" s="5">
+        <v>60</v>
+      </c>
+      <c r="C28" s="8">
+        <f t="shared" si="0"/>
+        <v>42551</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B29" s="5">
+        <v>60</v>
+      </c>
+      <c r="C29" s="8">
+        <f t="shared" si="0"/>
+        <v>42551</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B30" s="5">
+        <v>60</v>
+      </c>
+      <c r="C30" s="8">
+        <f t="shared" si="0"/>
+        <v>42551</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B31" s="5">
+        <v>60</v>
+      </c>
+      <c r="C31" s="8">
+        <f t="shared" si="0"/>
+        <v>42551</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B32" s="5">
+        <v>60</v>
+      </c>
+      <c r="C32" s="8">
+        <f t="shared" si="0"/>
+        <v>42916</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B33" s="5">
+        <v>60</v>
+      </c>
+      <c r="C33" s="8">
+        <f t="shared" si="0"/>
+        <v>42916</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B34" s="5">
+        <v>60</v>
+      </c>
+      <c r="C34" s="8">
+        <f t="shared" si="0"/>
+        <v>42916</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B35" s="5">
+        <v>60</v>
+      </c>
+      <c r="C35" s="8">
+        <f t="shared" si="0"/>
+        <v>42916</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B36" s="5">
+        <v>60</v>
+      </c>
+      <c r="C36" s="8">
+        <f t="shared" si="0"/>
+        <v>42916</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B37" s="5">
+        <v>60</v>
+      </c>
+      <c r="C37" s="8">
+        <f t="shared" si="0"/>
+        <v>43281</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B38" s="5">
+        <v>60</v>
+      </c>
+      <c r="C38" s="8">
+        <f t="shared" si="0"/>
+        <v>43281</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B39" s="5">
+        <v>60</v>
+      </c>
+      <c r="C39" s="8">
+        <f t="shared" si="0"/>
+        <v>43281</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B40" s="5">
+        <v>60</v>
+      </c>
+      <c r="C40" s="8">
+        <f t="shared" si="0"/>
+        <v>43281</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B41" s="5">
+        <v>60</v>
+      </c>
+      <c r="C41" s="8">
+        <f t="shared" si="0"/>
+        <v>43281</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B42" s="5">
+        <v>60</v>
+      </c>
+      <c r="C42" s="8">
+        <f t="shared" si="0"/>
+        <v>43646</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B43" s="5">
+        <v>60</v>
+      </c>
+      <c r="C43" s="8">
+        <f t="shared" si="0"/>
+        <v>43646</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B44" s="5">
+        <v>60</v>
+      </c>
+      <c r="C44" s="8">
+        <f t="shared" si="0"/>
+        <v>43646</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B45" s="5">
+        <v>60</v>
+      </c>
+      <c r="C45" s="8">
+        <f t="shared" si="0"/>
+        <v>43646</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B46" s="5">
+        <v>60</v>
+      </c>
+      <c r="C46" s="8">
+        <f t="shared" si="0"/>
+        <v>43646</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B47" s="5">
+        <v>60</v>
+      </c>
+      <c r="C47" s="8">
+        <f t="shared" si="0"/>
+        <v>44012</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B48" s="5">
+        <v>60</v>
+      </c>
+      <c r="C48" s="8">
+        <f t="shared" si="0"/>
+        <v>44012</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B49" s="5">
+        <v>60</v>
+      </c>
+      <c r="C49" s="8">
+        <f t="shared" si="0"/>
+        <v>44012</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B50" s="5">
+        <v>60</v>
+      </c>
+      <c r="C50" s="8">
+        <f t="shared" si="0"/>
+        <v>44012</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B51" s="5">
+        <v>60</v>
+      </c>
+      <c r="C51" s="8">
+        <f t="shared" si="0"/>
+        <v>44012</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B52" s="5">
+        <v>60</v>
+      </c>
+      <c r="C52" s="8">
+        <f t="shared" si="0"/>
+        <v>44377</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B53" s="5">
+        <v>60</v>
+      </c>
+      <c r="C53" s="8">
+        <f t="shared" si="0"/>
+        <v>44377</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B54" s="5">
+        <v>60</v>
+      </c>
+      <c r="C54" s="8">
+        <f t="shared" si="0"/>
+        <v>44377</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B55" s="5">
+        <v>60</v>
+      </c>
+      <c r="C55" s="8">
+        <f t="shared" si="0"/>
+        <v>44377</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B56" s="5">
+        <v>60</v>
+      </c>
+      <c r="C56" s="8">
+        <f t="shared" si="0"/>
+        <v>44377</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B57" s="5">
+        <v>60</v>
+      </c>
+      <c r="C57" s="8">
+        <f t="shared" ref="C57:C61" si="1">DATE(MID(A57,14,4),MID(A57,12,2),MID(A57,10,2))</f>
         <v>44742</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D57" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D2">
-        <v>62</v>
-      </c>
-      <c r="E2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="E57" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B58" s="5">
+        <v>60</v>
+      </c>
+      <c r="C58" s="8">
+        <f t="shared" si="1"/>
         <v>44742</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D58" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D3">
-        <v>38</v>
-      </c>
-      <c r="E3">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>60</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="E58" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B59" s="5">
+        <v>60</v>
+      </c>
+      <c r="C59" s="8">
+        <f t="shared" si="1"/>
         <v>44742</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D59" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D4">
-        <v>164</v>
-      </c>
-      <c r="E4">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>60</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="E59" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B60" s="5">
+        <v>60</v>
+      </c>
+      <c r="C60" s="8">
+        <f t="shared" si="1"/>
         <v>44742</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D60" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D5">
-        <v>41</v>
-      </c>
-      <c r="E5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>60</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="E60" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B61" s="5">
+        <v>60</v>
+      </c>
+      <c r="C61" s="8">
+        <f t="shared" si="1"/>
         <v>44742</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D61" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D6">
-        <v>61</v>
-      </c>
-      <c r="E6">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>60</v>
-      </c>
-      <c r="B7" s="2">
-        <v>44377</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7">
-        <v>57</v>
-      </c>
-      <c r="E7">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>60</v>
-      </c>
-      <c r="B8" s="2">
-        <v>44377</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8">
-        <v>41</v>
-      </c>
-      <c r="E8">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>60</v>
-      </c>
-      <c r="B9" s="2">
-        <v>44377</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9">
-        <v>170</v>
-      </c>
-      <c r="E9">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>60</v>
-      </c>
-      <c r="B10" s="2">
-        <v>44377</v>
-      </c>
-      <c r="C10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10">
-        <v>32</v>
-      </c>
-      <c r="E10">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>60</v>
-      </c>
-      <c r="B11" s="2">
-        <v>44377</v>
-      </c>
-      <c r="C11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11">
-        <v>64</v>
-      </c>
-      <c r="E11">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>60</v>
-      </c>
-      <c r="B12" s="2">
-        <v>44012</v>
-      </c>
-      <c r="C12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>60</v>
-      </c>
-      <c r="B13" s="2">
-        <v>44012</v>
-      </c>
-      <c r="C13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>60</v>
-      </c>
-      <c r="B14" s="2">
-        <v>44012</v>
-      </c>
-      <c r="C14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>60</v>
-      </c>
-      <c r="B15" s="2">
-        <v>44012</v>
-      </c>
-      <c r="C15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>60</v>
-      </c>
-      <c r="B16" s="2">
-        <v>44012</v>
-      </c>
-      <c r="C16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>60</v>
-      </c>
-      <c r="B17" s="2">
-        <v>43646</v>
-      </c>
-      <c r="C17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>60</v>
-      </c>
-      <c r="B18" s="2">
-        <v>43646</v>
-      </c>
-      <c r="C18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>60</v>
-      </c>
-      <c r="B19" s="2">
-        <v>43646</v>
-      </c>
-      <c r="C19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>60</v>
-      </c>
-      <c r="B20" s="2">
-        <v>43646</v>
-      </c>
-      <c r="C20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>60</v>
-      </c>
-      <c r="B21" s="2">
-        <v>43646</v>
-      </c>
-      <c r="C21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>60</v>
-      </c>
-      <c r="B22" s="2">
-        <v>43281</v>
-      </c>
-      <c r="C22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>60</v>
-      </c>
-      <c r="B23" s="2">
-        <v>43281</v>
-      </c>
-      <c r="C23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>60</v>
-      </c>
-      <c r="B24" s="2">
-        <v>43281</v>
-      </c>
-      <c r="C24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>60</v>
-      </c>
-      <c r="B25" s="2">
-        <v>43281</v>
-      </c>
-      <c r="C25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>60</v>
-      </c>
-      <c r="B26" s="2">
-        <v>43281</v>
-      </c>
-      <c r="C26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>60</v>
-      </c>
-      <c r="B27" s="2">
-        <v>42916</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>60</v>
-      </c>
-      <c r="B28" s="2">
-        <v>42916</v>
-      </c>
-      <c r="C28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>60</v>
-      </c>
-      <c r="B29" s="2">
-        <v>42916</v>
-      </c>
-      <c r="C29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>60</v>
-      </c>
-      <c r="B30" s="2">
-        <v>42916</v>
-      </c>
-      <c r="C30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>60</v>
-      </c>
-      <c r="B31" s="2">
-        <v>42916</v>
-      </c>
-      <c r="C31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>60</v>
-      </c>
-      <c r="B32" s="2">
-        <v>42551</v>
-      </c>
-      <c r="C32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32">
-        <v>45</v>
-      </c>
-      <c r="E32">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>60</v>
-      </c>
-      <c r="B33" s="2">
-        <v>42551</v>
-      </c>
-      <c r="C33" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33">
-        <v>38</v>
-      </c>
-      <c r="E33">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>60</v>
-      </c>
-      <c r="B34" s="2">
-        <v>42551</v>
-      </c>
-      <c r="C34" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34">
-        <v>170</v>
-      </c>
-      <c r="E34">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>60</v>
-      </c>
-      <c r="B35" s="2">
-        <v>42551</v>
-      </c>
-      <c r="C35" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35">
-        <v>47</v>
-      </c>
-      <c r="E35">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>60</v>
-      </c>
-      <c r="B36" s="2">
-        <v>42551</v>
-      </c>
-      <c r="C36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36">
-        <v>81</v>
-      </c>
-      <c r="E36">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>60</v>
-      </c>
-      <c r="B37" s="2">
-        <v>42185</v>
-      </c>
-      <c r="C37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>60</v>
-      </c>
-      <c r="B38" s="2">
-        <v>42185</v>
-      </c>
-      <c r="C38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>60</v>
-      </c>
-      <c r="B39" s="2">
-        <v>42185</v>
-      </c>
-      <c r="C39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>60</v>
-      </c>
-      <c r="B40" s="2">
-        <v>42185</v>
-      </c>
-      <c r="C40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>60</v>
-      </c>
-      <c r="B41" s="2">
-        <v>42185</v>
-      </c>
-      <c r="C41" t="s">
-        <v>68</v>
+      <c r="E61" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>566</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J61"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" activeCellId="1" sqref="C2 D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2">
+        <f t="shared" ref="C2:C33" si="0">DATE(MID(A2,14,4),MID(A2,12,2),MID(A2,10,2))</f>
+        <v>40724</v>
+      </c>
+      <c r="D2">
+        <f>LEFT(E2,4)*1</f>
+        <v>2012</v>
+      </c>
+      <c r="E2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3">
+        <v>60</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" si="0"/>
+        <v>40724</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D57" si="1">LEFT(E3,4)*1</f>
+        <v>2013</v>
+      </c>
+      <c r="E3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>40724</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="E4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4" t="s">
+        <v>115</v>
+      </c>
+      <c r="K4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5">
+        <v>60</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>40724</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>2015</v>
+      </c>
+      <c r="E5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I5" t="s">
+        <v>119</v>
+      </c>
+      <c r="J5" t="s">
+        <v>120</v>
+      </c>
+      <c r="K5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6">
+        <v>60</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>40724</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>2016</v>
+      </c>
+      <c r="E6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" t="s">
+        <v>120</v>
+      </c>
+      <c r="K6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7">
+        <v>60</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>40724</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>2017</v>
+      </c>
+      <c r="E7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8">
+        <v>60</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>41090</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>2013</v>
+      </c>
+      <c r="E8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9">
+        <v>60</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>41090</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="E9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" t="s">
+        <v>139</v>
+      </c>
+      <c r="J9" t="s">
+        <v>144</v>
+      </c>
+      <c r="K9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10">
+        <v>60</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>41090</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>2015</v>
+      </c>
+      <c r="E10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" t="s">
+        <v>130</v>
+      </c>
+      <c r="I10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J10" t="s">
+        <v>147</v>
+      </c>
+      <c r="K10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11">
+        <v>60</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>41090</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>2016</v>
+      </c>
+      <c r="E11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>149</v>
+      </c>
+      <c r="H11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" t="s">
+        <v>150</v>
+      </c>
+      <c r="J11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12">
+        <v>60</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>41090</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>2017</v>
+      </c>
+      <c r="E12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>153</v>
+      </c>
+      <c r="H12" t="s">
+        <v>154</v>
+      </c>
+      <c r="I12" t="s">
+        <v>155</v>
+      </c>
+      <c r="J12" t="s">
+        <v>156</v>
+      </c>
+      <c r="K12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13">
+        <v>60</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>41090</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>2018</v>
+      </c>
+      <c r="E13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" t="s">
+        <v>153</v>
+      </c>
+      <c r="H13" t="s">
+        <v>159</v>
+      </c>
+      <c r="I13" t="s">
+        <v>160</v>
+      </c>
+      <c r="J13" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14">
+        <v>60</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>41455</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="E14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" t="s">
+        <v>164</v>
+      </c>
+      <c r="H14" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" t="s">
+        <v>165</v>
+      </c>
+      <c r="J14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15">
+        <v>60</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>41455</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>2015</v>
+      </c>
+      <c r="E15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" t="s">
+        <v>164</v>
+      </c>
+      <c r="H15" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" t="s">
+        <v>167</v>
+      </c>
+      <c r="J15" t="s">
+        <v>168</v>
+      </c>
+      <c r="K15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>41455</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>2016</v>
+      </c>
+      <c r="E16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" t="s">
+        <v>170</v>
+      </c>
+      <c r="H16" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" t="s">
+        <v>171</v>
+      </c>
+      <c r="J16" t="s">
+        <v>168</v>
+      </c>
+      <c r="K16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17">
+        <v>60</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>41455</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>2017</v>
+      </c>
+      <c r="E17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" t="s">
+        <v>172</v>
+      </c>
+      <c r="H17" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" t="s">
+        <v>173</v>
+      </c>
+      <c r="J17" t="s">
+        <v>174</v>
+      </c>
+      <c r="K17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18">
+        <v>60</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>41455</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>2018</v>
+      </c>
+      <c r="E18" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" t="s">
+        <v>170</v>
+      </c>
+      <c r="H18" t="s">
+        <v>125</v>
+      </c>
+      <c r="I18" t="s">
+        <v>176</v>
+      </c>
+      <c r="J18" t="s">
+        <v>120</v>
+      </c>
+      <c r="K18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19">
+        <v>60</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>41455</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>2019</v>
+      </c>
+      <c r="E19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" t="s">
+        <v>172</v>
+      </c>
+      <c r="H19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I19" t="s">
+        <v>179</v>
+      </c>
+      <c r="J19" t="s">
+        <v>180</v>
+      </c>
+      <c r="K19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20">
+        <v>60</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>41820</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>2015</v>
+      </c>
+      <c r="E20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" t="s">
+        <v>184</v>
+      </c>
+      <c r="H20" t="s">
+        <v>125</v>
+      </c>
+      <c r="I20" t="s">
+        <v>185</v>
+      </c>
+      <c r="J20" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21">
+        <v>60</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>41820</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>2016</v>
+      </c>
+      <c r="E21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" t="s">
+        <v>187</v>
+      </c>
+      <c r="H21" t="s">
+        <v>108</v>
+      </c>
+      <c r="I21" t="s">
+        <v>187</v>
+      </c>
+      <c r="J21" t="s">
+        <v>147</v>
+      </c>
+      <c r="K21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22">
+        <v>60</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>41820</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>2017</v>
+      </c>
+      <c r="E22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" t="s">
+        <v>185</v>
+      </c>
+      <c r="H22" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" t="s">
+        <v>187</v>
+      </c>
+      <c r="J22" t="s">
+        <v>174</v>
+      </c>
+      <c r="K22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23">
+        <v>60</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>41820</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>2018</v>
+      </c>
+      <c r="E23" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" t="s">
+        <v>190</v>
+      </c>
+      <c r="H23" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J23" t="s">
+        <v>191</v>
+      </c>
+      <c r="K23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24">
+        <v>60</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>41820</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>2019</v>
+      </c>
+      <c r="E24" t="s">
+        <v>178</v>
+      </c>
+      <c r="F24" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" t="s">
+        <v>187</v>
+      </c>
+      <c r="H24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I24" t="s">
+        <v>193</v>
+      </c>
+      <c r="J24" t="s">
+        <v>180</v>
+      </c>
+      <c r="K24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25">
+        <v>60</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>41820</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>2020</v>
+      </c>
+      <c r="E25" t="s">
+        <v>195</v>
+      </c>
+      <c r="F25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" t="s">
+        <v>196</v>
+      </c>
+      <c r="H25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I25" t="s">
+        <v>197</v>
+      </c>
+      <c r="J25" t="s">
+        <v>113</v>
+      </c>
+      <c r="K25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B26">
+        <v>60</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>42185</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>2016</v>
+      </c>
+      <c r="E26" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" t="s">
+        <v>201</v>
+      </c>
+      <c r="H26" t="s">
+        <v>123</v>
+      </c>
+      <c r="I26" t="s">
+        <v>201</v>
+      </c>
+      <c r="J26" t="s">
+        <v>191</v>
+      </c>
+      <c r="K26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>200</v>
+      </c>
+      <c r="B27">
+        <v>60</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>42185</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>2017</v>
+      </c>
+      <c r="E27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" t="s">
+        <v>125</v>
+      </c>
+      <c r="G27" t="s">
+        <v>203</v>
+      </c>
+      <c r="H27" t="s">
+        <v>101</v>
+      </c>
+      <c r="I27" t="s">
+        <v>204</v>
+      </c>
+      <c r="J27" t="s">
+        <v>99</v>
+      </c>
+      <c r="K27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>200</v>
+      </c>
+      <c r="B28">
+        <v>60</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>42185</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>2018</v>
+      </c>
+      <c r="E28" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" t="s">
+        <v>204</v>
+      </c>
+      <c r="H28" t="s">
+        <v>108</v>
+      </c>
+      <c r="I28" t="s">
+        <v>206</v>
+      </c>
+      <c r="J28" t="s">
+        <v>151</v>
+      </c>
+      <c r="K28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>200</v>
+      </c>
+      <c r="B29">
+        <v>60</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>42185</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>2019</v>
+      </c>
+      <c r="E29" t="s">
+        <v>178</v>
+      </c>
+      <c r="F29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" t="s">
+        <v>208</v>
+      </c>
+      <c r="H29" t="s">
+        <v>118</v>
+      </c>
+      <c r="I29" t="s">
+        <v>197</v>
+      </c>
+      <c r="J29" t="s">
+        <v>99</v>
+      </c>
+      <c r="K29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>200</v>
+      </c>
+      <c r="B30">
+        <v>60</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>42185</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>2020</v>
+      </c>
+      <c r="E30" t="s">
+        <v>195</v>
+      </c>
+      <c r="F30" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" t="s">
+        <v>203</v>
+      </c>
+      <c r="H30" t="s">
+        <v>154</v>
+      </c>
+      <c r="I30" t="s">
+        <v>209</v>
+      </c>
+      <c r="J30" t="s">
+        <v>156</v>
+      </c>
+      <c r="K30" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>200</v>
+      </c>
+      <c r="B31">
+        <v>60</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>42185</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>2021</v>
+      </c>
+      <c r="E31" t="s">
+        <v>211</v>
+      </c>
+      <c r="F31" t="s">
+        <v>212</v>
+      </c>
+      <c r="G31" t="s">
+        <v>213</v>
+      </c>
+      <c r="H31" t="s">
+        <v>123</v>
+      </c>
+      <c r="I31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>216</v>
+      </c>
+      <c r="B32">
+        <v>60</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>42551</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>2017</v>
+      </c>
+      <c r="E32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" t="s">
+        <v>154</v>
+      </c>
+      <c r="G32" t="s">
+        <v>217</v>
+      </c>
+      <c r="H32" t="s">
+        <v>125</v>
+      </c>
+      <c r="I32" t="s">
+        <v>218</v>
+      </c>
+      <c r="J32" t="s">
+        <v>156</v>
+      </c>
+      <c r="K32" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>216</v>
+      </c>
+      <c r="B33">
+        <v>60</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>42551</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>2018</v>
+      </c>
+      <c r="E33" t="s">
+        <v>158</v>
+      </c>
+      <c r="F33" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" t="s">
+        <v>220</v>
+      </c>
+      <c r="H33" t="s">
+        <v>108</v>
+      </c>
+      <c r="I33" t="s">
+        <v>221</v>
+      </c>
+      <c r="J33" t="s">
+        <v>151</v>
+      </c>
+      <c r="K33" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>216</v>
+      </c>
+      <c r="B34">
+        <v>60</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" ref="C34:C65" si="2">DATE(MID(A34,14,4),MID(A34,12,2),MID(A34,10,2))</f>
+        <v>42551</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>2019</v>
+      </c>
+      <c r="E34" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G34" t="s">
+        <v>221</v>
+      </c>
+      <c r="H34" t="s">
+        <v>118</v>
+      </c>
+      <c r="I34" t="s">
+        <v>223</v>
+      </c>
+      <c r="J34" t="s">
+        <v>212</v>
+      </c>
+      <c r="K34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>216</v>
+      </c>
+      <c r="B35">
+        <v>60</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="2"/>
+        <v>42551</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>2020</v>
+      </c>
+      <c r="E35" t="s">
+        <v>195</v>
+      </c>
+      <c r="F35" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" t="s">
+        <v>218</v>
+      </c>
+      <c r="H35" t="s">
+        <v>108</v>
+      </c>
+      <c r="I35" t="s">
+        <v>221</v>
+      </c>
+      <c r="J35" t="s">
+        <v>174</v>
+      </c>
+      <c r="K35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>216</v>
+      </c>
+      <c r="B36">
+        <v>60</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="2"/>
+        <v>42551</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>2021</v>
+      </c>
+      <c r="E36" t="s">
+        <v>211</v>
+      </c>
+      <c r="F36" t="s">
+        <v>174</v>
+      </c>
+      <c r="G36" t="s">
+        <v>225</v>
+      </c>
+      <c r="H36" t="s">
+        <v>180</v>
+      </c>
+      <c r="I36" t="s">
+        <v>226</v>
+      </c>
+      <c r="J36" t="s">
+        <v>227</v>
+      </c>
+      <c r="K36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>216</v>
+      </c>
+      <c r="B37">
+        <v>60</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="2"/>
+        <v>42551</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+      <c r="E37" t="s">
+        <v>229</v>
+      </c>
+      <c r="F37" t="s">
+        <v>125</v>
+      </c>
+      <c r="G37" t="s">
+        <v>218</v>
+      </c>
+      <c r="H37" t="s">
+        <v>154</v>
+      </c>
+      <c r="I37" t="s">
+        <v>217</v>
+      </c>
+      <c r="J37" t="s">
+        <v>156</v>
+      </c>
+      <c r="K37" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>233</v>
+      </c>
+      <c r="B38">
+        <v>60</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="2"/>
+        <v>42916</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>2018</v>
+      </c>
+      <c r="E38" t="s">
+        <v>158</v>
+      </c>
+      <c r="F38" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" t="s">
+        <v>234</v>
+      </c>
+      <c r="H38" t="s">
+        <v>108</v>
+      </c>
+      <c r="I38" t="s">
+        <v>234</v>
+      </c>
+      <c r="J38" t="s">
+        <v>147</v>
+      </c>
+      <c r="K38" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>233</v>
+      </c>
+      <c r="B39">
+        <v>60</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="2"/>
+        <v>42916</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>2019</v>
+      </c>
+      <c r="E39" t="s">
+        <v>178</v>
+      </c>
+      <c r="F39" t="s">
+        <v>123</v>
+      </c>
+      <c r="G39" t="s">
+        <v>236</v>
+      </c>
+      <c r="H39" t="s">
+        <v>159</v>
+      </c>
+      <c r="I39" t="s">
+        <v>237</v>
+      </c>
+      <c r="J39" t="s">
+        <v>212</v>
+      </c>
+      <c r="K39" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>233</v>
+      </c>
+      <c r="B40">
+        <v>60</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="2"/>
+        <v>42916</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>2020</v>
+      </c>
+      <c r="E40" t="s">
+        <v>195</v>
+      </c>
+      <c r="F40" t="s">
+        <v>128</v>
+      </c>
+      <c r="G40" t="s">
+        <v>239</v>
+      </c>
+      <c r="H40" t="s">
+        <v>108</v>
+      </c>
+      <c r="I40" t="s">
+        <v>234</v>
+      </c>
+      <c r="J40" t="s">
+        <v>99</v>
+      </c>
+      <c r="K40" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>233</v>
+      </c>
+      <c r="B41">
+        <v>60</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" si="2"/>
+        <v>42916</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>2021</v>
+      </c>
+      <c r="E41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F41" t="s">
+        <v>156</v>
+      </c>
+      <c r="G41" t="s">
+        <v>241</v>
+      </c>
+      <c r="H41" t="s">
+        <v>212</v>
+      </c>
+      <c r="I41" t="s">
+        <v>238</v>
+      </c>
+      <c r="J41" t="s">
+        <v>242</v>
+      </c>
+      <c r="K41" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>233</v>
+      </c>
+      <c r="B42">
+        <v>60</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" si="2"/>
+        <v>42916</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+      <c r="E42" t="s">
+        <v>229</v>
+      </c>
+      <c r="F42" t="s">
+        <v>101</v>
+      </c>
+      <c r="G42" t="s">
+        <v>244</v>
+      </c>
+      <c r="H42" t="s">
+        <v>113</v>
+      </c>
+      <c r="I42" t="s">
+        <v>245</v>
+      </c>
+      <c r="J42" t="s">
+        <v>168</v>
+      </c>
+      <c r="K42" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>233</v>
+      </c>
+      <c r="B43">
+        <v>60</v>
+      </c>
+      <c r="C43" s="2">
+        <f t="shared" si="2"/>
+        <v>42916</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+      <c r="E43" t="s">
+        <v>247</v>
+      </c>
+      <c r="F43" t="s">
+        <v>101</v>
+      </c>
+      <c r="G43" t="s">
+        <v>244</v>
+      </c>
+      <c r="H43" t="s">
+        <v>128</v>
+      </c>
+      <c r="I43" t="s">
+        <v>239</v>
+      </c>
+      <c r="J43" t="s">
+        <v>156</v>
+      </c>
+      <c r="K43" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>249</v>
+      </c>
+      <c r="B44">
+        <v>60</v>
+      </c>
+      <c r="C44" s="2">
+        <f t="shared" si="2"/>
+        <v>43281</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>2019</v>
+      </c>
+      <c r="E44" t="s">
+        <v>178</v>
+      </c>
+      <c r="F44" t="s">
+        <v>123</v>
+      </c>
+      <c r="G44" t="s">
+        <v>114</v>
+      </c>
+      <c r="H44" t="s">
+        <v>250</v>
+      </c>
+      <c r="I44" t="s">
+        <v>251</v>
+      </c>
+      <c r="J44" t="s">
+        <v>180</v>
+      </c>
+      <c r="K44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>249</v>
+      </c>
+      <c r="B45">
+        <v>60</v>
+      </c>
+      <c r="C45" s="2">
+        <f t="shared" si="2"/>
+        <v>43281</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>2020</v>
+      </c>
+      <c r="E45" t="s">
+        <v>195</v>
+      </c>
+      <c r="F45" t="s">
+        <v>128</v>
+      </c>
+      <c r="G45" t="s">
+        <v>253</v>
+      </c>
+      <c r="H45" t="s">
+        <v>108</v>
+      </c>
+      <c r="I45" t="s">
+        <v>254</v>
+      </c>
+      <c r="J45" t="s">
+        <v>99</v>
+      </c>
+      <c r="K45" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>249</v>
+      </c>
+      <c r="B46">
+        <v>60</v>
+      </c>
+      <c r="C46" s="2">
+        <f t="shared" si="2"/>
+        <v>43281</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>2021</v>
+      </c>
+      <c r="E46" t="s">
+        <v>211</v>
+      </c>
+      <c r="F46" t="s">
+        <v>174</v>
+      </c>
+      <c r="G46" t="s">
+        <v>256</v>
+      </c>
+      <c r="H46" t="s">
+        <v>137</v>
+      </c>
+      <c r="I46" t="s">
+        <v>257</v>
+      </c>
+      <c r="J46" t="s">
+        <v>242</v>
+      </c>
+      <c r="K46" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>249</v>
+      </c>
+      <c r="B47">
+        <v>60</v>
+      </c>
+      <c r="C47" s="2">
+        <f t="shared" si="2"/>
+        <v>43281</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+      <c r="E47" t="s">
+        <v>229</v>
+      </c>
+      <c r="F47" t="s">
+        <v>142</v>
+      </c>
+      <c r="G47" t="s">
+        <v>259</v>
+      </c>
+      <c r="H47" t="s">
+        <v>108</v>
+      </c>
+      <c r="I47" t="s">
+        <v>254</v>
+      </c>
+      <c r="J47" t="s">
+        <v>260</v>
+      </c>
+      <c r="K47" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B48">
+        <v>60</v>
+      </c>
+      <c r="C48" s="2">
+        <f t="shared" si="2"/>
+        <v>43281</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+      <c r="E48" t="s">
+        <v>247</v>
+      </c>
+      <c r="F48" t="s">
+        <v>101</v>
+      </c>
+      <c r="G48" t="s">
+        <v>262</v>
+      </c>
+      <c r="H48" t="s">
+        <v>101</v>
+      </c>
+      <c r="I48" t="s">
+        <v>262</v>
+      </c>
+      <c r="J48" t="s">
+        <v>120</v>
+      </c>
+      <c r="K48" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>249</v>
+      </c>
+      <c r="B49">
+        <v>60</v>
+      </c>
+      <c r="C49" s="2">
+        <f t="shared" si="2"/>
+        <v>43281</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+      <c r="E49" t="s">
+        <v>264</v>
+      </c>
+      <c r="F49" t="s">
+        <v>123</v>
+      </c>
+      <c r="G49" t="s">
+        <v>114</v>
+      </c>
+      <c r="H49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I49" t="s">
+        <v>253</v>
+      </c>
+      <c r="J49" t="s">
+        <v>174</v>
+      </c>
+      <c r="K49" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>268</v>
+      </c>
+      <c r="B50">
+        <v>60</v>
+      </c>
+      <c r="C50" s="2">
+        <f t="shared" si="2"/>
+        <v>43646</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>2020</v>
+      </c>
+      <c r="E50" t="s">
+        <v>195</v>
+      </c>
+      <c r="F50" t="s">
+        <v>125</v>
+      </c>
+      <c r="G50" t="s">
+        <v>269</v>
+      </c>
+      <c r="H50" t="s">
+        <v>108</v>
+      </c>
+      <c r="I50" t="s">
+        <v>270</v>
+      </c>
+      <c r="J50" t="s">
+        <v>174</v>
+      </c>
+      <c r="K50" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>268</v>
+      </c>
+      <c r="B51">
+        <v>60</v>
+      </c>
+      <c r="C51" s="2">
+        <f t="shared" si="2"/>
+        <v>43646</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>2021</v>
+      </c>
+      <c r="E51" t="s">
+        <v>211</v>
+      </c>
+      <c r="F51" t="s">
+        <v>99</v>
+      </c>
+      <c r="G51" t="s">
+        <v>189</v>
+      </c>
+      <c r="H51" t="s">
+        <v>180</v>
+      </c>
+      <c r="I51" t="s">
+        <v>272</v>
+      </c>
+      <c r="J51" t="s">
+        <v>242</v>
+      </c>
+      <c r="K51" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>268</v>
+      </c>
+      <c r="B52">
+        <v>60</v>
+      </c>
+      <c r="C52" s="2">
+        <f t="shared" si="2"/>
+        <v>43646</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+      <c r="E52" t="s">
+        <v>229</v>
+      </c>
+      <c r="F52" t="s">
+        <v>123</v>
+      </c>
+      <c r="G52" t="s">
+        <v>274</v>
+      </c>
+      <c r="H52" t="s">
+        <v>108</v>
+      </c>
+      <c r="I52" t="s">
+        <v>270</v>
+      </c>
+      <c r="J52" t="s">
+        <v>168</v>
+      </c>
+      <c r="K52" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>268</v>
+      </c>
+      <c r="B53">
+        <v>60</v>
+      </c>
+      <c r="C53" s="2">
+        <f t="shared" si="2"/>
+        <v>43646</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+      <c r="E53" t="s">
+        <v>247</v>
+      </c>
+      <c r="F53" t="s">
+        <v>108</v>
+      </c>
+      <c r="G53" t="s">
+        <v>270</v>
+      </c>
+      <c r="H53" t="s">
+        <v>108</v>
+      </c>
+      <c r="I53" t="s">
+        <v>270</v>
+      </c>
+      <c r="J53" t="s">
+        <v>147</v>
+      </c>
+      <c r="K53" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>268</v>
+      </c>
+      <c r="B54">
+        <v>60</v>
+      </c>
+      <c r="C54" s="2">
+        <f t="shared" si="2"/>
+        <v>43646</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+      <c r="E54" t="s">
+        <v>264</v>
+      </c>
+      <c r="F54" t="s">
+        <v>113</v>
+      </c>
+      <c r="G54" t="s">
+        <v>143</v>
+      </c>
+      <c r="H54" t="s">
+        <v>130</v>
+      </c>
+      <c r="I54" t="s">
+        <v>277</v>
+      </c>
+      <c r="J54" t="s">
+        <v>174</v>
+      </c>
+      <c r="K54" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>268</v>
+      </c>
+      <c r="B55">
+        <v>60</v>
+      </c>
+      <c r="C55" s="2">
+        <f t="shared" si="2"/>
+        <v>43646</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>2025</v>
+      </c>
+      <c r="E55" t="s">
+        <v>278</v>
+      </c>
+      <c r="F55" t="s">
+        <v>125</v>
+      </c>
+      <c r="G55" t="s">
+        <v>269</v>
+      </c>
+      <c r="H55" t="s">
+        <v>154</v>
+      </c>
+      <c r="I55" t="s">
+        <v>279</v>
+      </c>
+      <c r="J55" t="s">
+        <v>156</v>
+      </c>
+      <c r="K55" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>283</v>
+      </c>
+      <c r="B56">
+        <v>60</v>
+      </c>
+      <c r="C56" s="2">
+        <f t="shared" si="2"/>
+        <v>44012</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>2021</v>
+      </c>
+      <c r="E56" t="s">
+        <v>211</v>
+      </c>
+      <c r="F56" t="s">
+        <v>174</v>
+      </c>
+      <c r="G56" t="s">
+        <v>284</v>
+      </c>
+      <c r="H56" t="s">
+        <v>180</v>
+      </c>
+      <c r="I56" t="s">
+        <v>285</v>
+      </c>
+      <c r="J56" t="s">
+        <v>227</v>
+      </c>
+      <c r="K56" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>283</v>
+      </c>
+      <c r="B57">
+        <v>60</v>
+      </c>
+      <c r="C57" s="2">
+        <f t="shared" si="2"/>
+        <v>44012</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+      <c r="E57" t="s">
+        <v>229</v>
+      </c>
+      <c r="F57" t="s">
+        <v>113</v>
+      </c>
+      <c r="G57" t="s">
+        <v>287</v>
+      </c>
+      <c r="H57" t="s">
+        <v>108</v>
+      </c>
+      <c r="I57" t="s">
+        <v>288</v>
+      </c>
+      <c r="J57" t="s">
+        <v>191</v>
+      </c>
+      <c r="K57" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>283</v>
+      </c>
+      <c r="B58">
+        <v>60</v>
+      </c>
+      <c r="C58" s="2">
+        <f t="shared" si="2"/>
+        <v>44012</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ref="D58:D73" si="3">LEFT(E58,4)*1</f>
+        <v>2023</v>
+      </c>
+      <c r="E58" t="s">
+        <v>247</v>
+      </c>
+      <c r="F58" t="s">
+        <v>108</v>
+      </c>
+      <c r="G58" t="s">
+        <v>288</v>
+      </c>
+      <c r="H58" t="s">
+        <v>108</v>
+      </c>
+      <c r="I58" t="s">
+        <v>288</v>
+      </c>
+      <c r="J58" t="s">
+        <v>147</v>
+      </c>
+      <c r="K58" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>283</v>
+      </c>
+      <c r="B59">
+        <v>60</v>
+      </c>
+      <c r="C59" s="2">
+        <f t="shared" si="2"/>
+        <v>44012</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="3"/>
+        <v>2024</v>
+      </c>
+      <c r="E59" t="s">
+        <v>264</v>
+      </c>
+      <c r="F59" t="s">
+        <v>113</v>
+      </c>
+      <c r="G59" t="s">
+        <v>287</v>
+      </c>
+      <c r="H59" t="s">
+        <v>128</v>
+      </c>
+      <c r="I59" t="s">
+        <v>291</v>
+      </c>
+      <c r="J59" t="s">
+        <v>120</v>
+      </c>
+      <c r="K59" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>283</v>
+      </c>
+      <c r="B60">
+        <v>60</v>
+      </c>
+      <c r="C60" s="2">
+        <f t="shared" si="2"/>
+        <v>44012</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="3"/>
+        <v>2025</v>
+      </c>
+      <c r="E60" t="s">
+        <v>278</v>
+      </c>
+      <c r="F60" t="s">
+        <v>106</v>
+      </c>
+      <c r="G60" t="s">
+        <v>293</v>
+      </c>
+      <c r="H60" t="s">
+        <v>142</v>
+      </c>
+      <c r="I60" t="s">
+        <v>294</v>
+      </c>
+      <c r="J60" t="s">
+        <v>140</v>
+      </c>
+      <c r="K60" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>283</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61" s="2">
+        <f t="shared" si="2"/>
+        <v>44012</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="3"/>
+        <v>2026</v>
+      </c>
+      <c r="E61" t="s">
+        <v>296</v>
+      </c>
+      <c r="F61" t="s">
+        <v>125</v>
+      </c>
+      <c r="G61" t="s">
+        <v>297</v>
+      </c>
+      <c r="H61" t="s">
+        <v>101</v>
+      </c>
+      <c r="I61" t="s">
+        <v>298</v>
+      </c>
+      <c r="J61" t="s">
+        <v>99</v>
+      </c>
+      <c r="K61" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>302</v>
+      </c>
+      <c r="B62">
+        <v>60</v>
+      </c>
+      <c r="C62" s="2">
+        <f t="shared" si="2"/>
+        <v>44377</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="3"/>
+        <v>2022</v>
+      </c>
+      <c r="E62" t="s">
+        <v>229</v>
+      </c>
+      <c r="F62" t="s">
+        <v>113</v>
+      </c>
+      <c r="G62" t="s">
+        <v>303</v>
+      </c>
+      <c r="H62" t="s">
+        <v>123</v>
+      </c>
+      <c r="I62" t="s">
+        <v>304</v>
+      </c>
+      <c r="J62" t="s">
+        <v>260</v>
+      </c>
+      <c r="K62" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>302</v>
+      </c>
+      <c r="B63">
+        <v>60</v>
+      </c>
+      <c r="C63" s="2">
+        <f t="shared" si="2"/>
+        <v>44377</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="3"/>
+        <v>2023</v>
+      </c>
+      <c r="E63" t="s">
+        <v>247</v>
+      </c>
+      <c r="F63" t="s">
+        <v>101</v>
+      </c>
+      <c r="G63" t="s">
+        <v>306</v>
+      </c>
+      <c r="H63" t="s">
+        <v>113</v>
+      </c>
+      <c r="I63" t="s">
+        <v>303</v>
+      </c>
+      <c r="J63" t="s">
+        <v>168</v>
+      </c>
+      <c r="K63" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>302</v>
+      </c>
+      <c r="B64">
+        <v>60</v>
+      </c>
+      <c r="C64" s="2">
+        <f t="shared" si="2"/>
+        <v>44377</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="3"/>
+        <v>2024</v>
+      </c>
+      <c r="E64" t="s">
+        <v>264</v>
+      </c>
+      <c r="F64" t="s">
+        <v>123</v>
+      </c>
+      <c r="G64" t="s">
+        <v>304</v>
+      </c>
+      <c r="H64" t="s">
+        <v>128</v>
+      </c>
+      <c r="I64" t="s">
+        <v>291</v>
+      </c>
+      <c r="J64" t="s">
+        <v>174</v>
+      </c>
+      <c r="K64" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>302</v>
+      </c>
+      <c r="B65">
+        <v>60</v>
+      </c>
+      <c r="C65" s="2">
+        <f t="shared" si="2"/>
+        <v>44377</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="3"/>
+        <v>2025</v>
+      </c>
+      <c r="E65" t="s">
+        <v>278</v>
+      </c>
+      <c r="F65" t="s">
+        <v>142</v>
+      </c>
+      <c r="G65" t="s">
+        <v>307</v>
+      </c>
+      <c r="H65" t="s">
+        <v>137</v>
+      </c>
+      <c r="I65" t="s">
+        <v>308</v>
+      </c>
+      <c r="J65" t="s">
+        <v>103</v>
+      </c>
+      <c r="K65" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>302</v>
+      </c>
+      <c r="B66">
+        <v>60</v>
+      </c>
+      <c r="C66" s="2">
+        <f t="shared" ref="C66:C73" si="4">DATE(MID(A66,14,4),MID(A66,12,2),MID(A66,10,2))</f>
+        <v>44377</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="3"/>
+        <v>2026</v>
+      </c>
+      <c r="E66" t="s">
+        <v>296</v>
+      </c>
+      <c r="F66" t="s">
+        <v>137</v>
+      </c>
+      <c r="G66" t="s">
+        <v>308</v>
+      </c>
+      <c r="H66" t="s">
+        <v>113</v>
+      </c>
+      <c r="I66" t="s">
+        <v>303</v>
+      </c>
+      <c r="J66" t="s">
+        <v>140</v>
+      </c>
+      <c r="K66" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>302</v>
+      </c>
+      <c r="B67">
+        <v>60</v>
+      </c>
+      <c r="C67" s="2">
+        <f t="shared" si="4"/>
+        <v>44377</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="3"/>
+        <v>2027</v>
+      </c>
+      <c r="E67" t="s">
+        <v>310</v>
+      </c>
+      <c r="F67" t="s">
+        <v>212</v>
+      </c>
+      <c r="G67" t="s">
+        <v>311</v>
+      </c>
+      <c r="H67" t="s">
+        <v>128</v>
+      </c>
+      <c r="I67" t="s">
+        <v>291</v>
+      </c>
+      <c r="J67" t="s">
+        <v>260</v>
+      </c>
+      <c r="K67" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>313</v>
+      </c>
+      <c r="B68">
+        <v>60</v>
+      </c>
+      <c r="C68" s="2">
+        <f t="shared" si="4"/>
+        <v>44742</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="3"/>
+        <v>2023</v>
+      </c>
+      <c r="E68" t="s">
+        <v>247</v>
+      </c>
+      <c r="F68" t="s">
+        <v>101</v>
+      </c>
+      <c r="G68" t="s">
+        <v>109</v>
+      </c>
+      <c r="H68" t="s">
+        <v>106</v>
+      </c>
+      <c r="I68" t="s">
+        <v>314</v>
+      </c>
+      <c r="J68" t="s">
+        <v>260</v>
+      </c>
+      <c r="K68" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>313</v>
+      </c>
+      <c r="B69">
+        <v>60</v>
+      </c>
+      <c r="C69" s="2">
+        <f t="shared" si="4"/>
+        <v>44742</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="3"/>
+        <v>2024</v>
+      </c>
+      <c r="E69" t="s">
+        <v>264</v>
+      </c>
+      <c r="F69" t="s">
+        <v>154</v>
+      </c>
+      <c r="G69" t="s">
+        <v>316</v>
+      </c>
+      <c r="H69" t="s">
+        <v>154</v>
+      </c>
+      <c r="I69" t="s">
+        <v>316</v>
+      </c>
+      <c r="J69" t="s">
+        <v>99</v>
+      </c>
+      <c r="K69" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>313</v>
+      </c>
+      <c r="B70">
+        <v>60</v>
+      </c>
+      <c r="C70" s="2">
+        <f t="shared" si="4"/>
+        <v>44742</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="3"/>
+        <v>2025</v>
+      </c>
+      <c r="E70" t="s">
+        <v>278</v>
+      </c>
+      <c r="F70" t="s">
+        <v>142</v>
+      </c>
+      <c r="G70" t="s">
+        <v>318</v>
+      </c>
+      <c r="H70" t="s">
+        <v>180</v>
+      </c>
+      <c r="I70" t="s">
+        <v>319</v>
+      </c>
+      <c r="J70" t="s">
+        <v>320</v>
+      </c>
+      <c r="K70" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>313</v>
+      </c>
+      <c r="B71">
+        <v>60</v>
+      </c>
+      <c r="C71" s="2">
+        <f t="shared" si="4"/>
+        <v>44742</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="3"/>
+        <v>2026</v>
+      </c>
+      <c r="E71" t="s">
+        <v>296</v>
+      </c>
+      <c r="F71" t="s">
+        <v>142</v>
+      </c>
+      <c r="G71" t="s">
+        <v>318</v>
+      </c>
+      <c r="H71" t="s">
+        <v>106</v>
+      </c>
+      <c r="I71" t="s">
+        <v>314</v>
+      </c>
+      <c r="J71" t="s">
+        <v>140</v>
+      </c>
+      <c r="K71" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>313</v>
+      </c>
+      <c r="B72">
+        <v>60</v>
+      </c>
+      <c r="C72" s="2">
+        <f t="shared" si="4"/>
+        <v>44742</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="3"/>
+        <v>2027</v>
+      </c>
+      <c r="E72" t="s">
+        <v>310</v>
+      </c>
+      <c r="F72" t="s">
+        <v>168</v>
+      </c>
+      <c r="G72" t="s">
+        <v>323</v>
+      </c>
+      <c r="H72" t="s">
+        <v>125</v>
+      </c>
+      <c r="I72" t="s">
+        <v>324</v>
+      </c>
+      <c r="J72" t="s">
+        <v>325</v>
+      </c>
+      <c r="K72" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>313</v>
+      </c>
+      <c r="B73">
+        <v>60</v>
+      </c>
+      <c r="C73" s="2">
+        <f t="shared" si="4"/>
+        <v>44742</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="3"/>
+        <v>2028</v>
+      </c>
+      <c r="E73" t="s">
+        <v>327</v>
+      </c>
+      <c r="F73" t="s">
+        <v>142</v>
+      </c>
+      <c r="G73" t="s">
+        <v>318</v>
+      </c>
+      <c r="H73" t="s">
+        <v>118</v>
+      </c>
+      <c r="I73" t="s">
+        <v>328</v>
+      </c>
+      <c r="J73" t="s">
+        <v>174</v>
+      </c>
+      <c r="K73" t="s">
+        <v>329</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4989,14 +10704,480 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>14.47</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1.7</v>
+      </c>
+      <c r="H3">
+        <v>11.8</v>
+      </c>
+      <c r="I3">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.07</v>
+      </c>
+      <c r="H4">
+        <v>7.4</v>
+      </c>
+      <c r="I4">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.33</v>
+      </c>
+      <c r="H5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I5">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.17</v>
+      </c>
+      <c r="H6">
+        <v>1.2</v>
+      </c>
+      <c r="I6">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.12</v>
+      </c>
+      <c r="H7">
+        <v>0.9</v>
+      </c>
+      <c r="I7">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0.74</v>
+      </c>
+      <c r="H8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I8">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.49</v>
+      </c>
+      <c r="H9">
+        <v>3.4</v>
+      </c>
+      <c r="I9">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.23</v>
+      </c>
+      <c r="H10">
+        <v>1.6</v>
+      </c>
+      <c r="I10">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.02</v>
+      </c>
+      <c r="H11">
+        <v>0.1</v>
+      </c>
+      <c r="I11">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>11.93</v>
+      </c>
+      <c r="H12">
+        <v>82.4</v>
+      </c>
+      <c r="I12">
+        <v>81.599999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.21</v>
+      </c>
+      <c r="H13">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I13">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>10.49</v>
+      </c>
+      <c r="H14">
+        <v>72.5</v>
+      </c>
+      <c r="I14">
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.23</v>
+      </c>
+      <c r="H15">
+        <v>1.6</v>
+      </c>
+      <c r="I15">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.11</v>
+      </c>
+      <c r="H16">
+        <v>0.7</v>
+      </c>
+      <c r="I16">
+        <v>1.5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/hhdaten/grunddaten.xlsx
+++ b/hhdaten/grunddaten.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="570">
   <si>
     <t>gdenr</t>
   </si>
@@ -190,9 +190,6 @@
     <t>ab 100 Jahre</t>
   </si>
   <si>
-    <t>gde</t>
-  </si>
-  <si>
     <t>datum</t>
   </si>
   <si>
@@ -1027,9 +1024,6 @@
     <t>Source</t>
   </si>
   <si>
-    <t>Date_of_stat</t>
-  </si>
-  <si>
     <t>einzuschulend_in</t>
   </si>
   <si>
@@ -1735,9 +1729,6 @@
     <t>zusammen</t>
   </si>
   <si>
-    <t>GDE</t>
-  </si>
-  <si>
     <t>Anteilm</t>
   </si>
   <si>
@@ -1748,9 +1739,6 @@
   </si>
   <si>
     <t>source</t>
-  </si>
-  <si>
-    <t>date_of_stat</t>
   </si>
 </sst>
 </file>
@@ -2692,13 +2680,13 @@
         <v>25</v>
       </c>
       <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>70</v>
-      </c>
-      <c r="E1" t="s">
-        <v>71</v>
       </c>
       <c r="F1" t="s">
         <v>26</v>
@@ -2713,10 +2701,10 @@
         <v>29</v>
       </c>
       <c r="J1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" t="s">
         <v>72</v>
-      </c>
-      <c r="K1" t="s">
-        <v>73</v>
       </c>
       <c r="L1" t="s">
         <v>23</v>
@@ -4171,16 +4159,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -4191,7 +4179,7 @@
         <v>44742</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2">
         <v>2042</v>
@@ -4208,7 +4196,7 @@
         <v>44742</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3">
         <v>108</v>
@@ -4225,7 +4213,7 @@
         <v>44742</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4">
         <v>45</v>
@@ -4242,7 +4230,7 @@
         <v>44742</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -4259,7 +4247,7 @@
         <v>44377</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6">
         <v>2054</v>
@@ -4276,7 +4264,7 @@
         <v>44377</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7">
         <v>108</v>
@@ -4293,7 +4281,7 @@
         <v>44377</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8">
         <v>43</v>
@@ -4310,7 +4298,7 @@
         <v>44377</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -4327,7 +4315,7 @@
         <v>44012</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10">
         <v>2020</v>
@@ -4344,7 +4332,7 @@
         <v>44012</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -4361,7 +4349,7 @@
         <v>44012</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12">
         <v>13</v>
@@ -4378,7 +4366,7 @@
         <v>44012</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13">
         <v>14</v>
@@ -4395,7 +4383,7 @@
         <v>43646</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14">
         <v>2019</v>
@@ -4412,7 +4400,7 @@
         <v>43646</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15">
         <v>12</v>
@@ -4429,7 +4417,7 @@
         <v>43646</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16">
         <v>13</v>
@@ -4446,7 +4434,7 @@
         <v>43646</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17">
         <v>14</v>
@@ -4463,7 +4451,7 @@
         <v>43281</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18">
         <v>2018</v>
@@ -4480,7 +4468,7 @@
         <v>43281</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19">
         <v>12</v>
@@ -4497,7 +4485,7 @@
         <v>43281</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20">
         <v>13</v>
@@ -4514,7 +4502,7 @@
         <v>43281</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21">
         <v>14</v>
@@ -4531,7 +4519,7 @@
         <v>42916</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22">
         <v>2017</v>
@@ -4548,7 +4536,7 @@
         <v>42916</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23">
         <v>12</v>
@@ -4565,7 +4553,7 @@
         <v>42916</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D24">
         <v>13</v>
@@ -4582,7 +4570,7 @@
         <v>42916</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25">
         <v>14</v>
@@ -4599,7 +4587,7 @@
         <v>42551</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26">
         <v>2089</v>
@@ -4616,7 +4604,7 @@
         <v>42551</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D27">
         <v>101</v>
@@ -4633,7 +4621,7 @@
         <v>42551</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28">
         <v>38</v>
@@ -4650,7 +4638,7 @@
         <v>42551</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4667,7 +4655,7 @@
         <v>42185</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D30">
         <v>2015</v>
@@ -4684,7 +4672,7 @@
         <v>42185</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D31">
         <v>12</v>
@@ -4701,7 +4689,7 @@
         <v>42185</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D32">
         <v>13</v>
@@ -4718,7 +4706,7 @@
         <v>42185</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D33">
         <v>14</v>
@@ -4736,27 +4724,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89:E89"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" t="s">
-        <v>54</v>
-      </c>
       <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>62</v>
-      </c>
-      <c r="E1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5935,52 +5923,52 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7:O8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
-        <v>573</v>
-      </c>
       <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>566</v>
+      </c>
+      <c r="G1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" t="s">
-        <v>569</v>
-      </c>
-      <c r="G1" t="s">
-        <v>63</v>
-      </c>
       <c r="H1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="J1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="5">
         <v>60</v>
@@ -5990,30 +5978,30 @@
         <v>40724</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>337</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="5">
         <v>60</v>
@@ -6023,30 +6011,30 @@
         <v>40724</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>342</v>
-      </c>
       <c r="I3" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" s="5">
         <v>60</v>
@@ -6056,30 +6044,30 @@
         <v>40724</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>346</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="5">
         <v>60</v>
@@ -6089,30 +6077,30 @@
         <v>40724</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="5">
         <v>60</v>
@@ -6122,30 +6110,30 @@
         <v>40724</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>357</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="5">
         <v>60</v>
@@ -6155,30 +6143,30 @@
         <v>41090</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>360</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" s="5">
         <v>60</v>
@@ -6188,30 +6176,30 @@
         <v>41090</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="I8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="5">
         <v>60</v>
@@ -6221,30 +6209,30 @@
         <v>41090</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>371</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="5">
         <v>60</v>
@@ -6254,30 +6242,30 @@
         <v>41090</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="5">
         <v>60</v>
@@ -6287,30 +6275,30 @@
         <v>41090</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>380</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B12" s="5">
         <v>60</v>
@@ -6320,30 +6308,30 @@
         <v>41455</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>383</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B13" s="5">
         <v>60</v>
@@ -6353,30 +6341,30 @@
         <v>41455</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B14" s="5">
         <v>60</v>
@@ -6386,30 +6374,30 @@
         <v>41455</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="J14" s="5" t="s">
         <v>392</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B15" s="5">
         <v>60</v>
@@ -6419,30 +6407,30 @@
         <v>41455</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="I15" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="J15" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B16" s="5">
         <v>60</v>
@@ -6452,30 +6440,30 @@
         <v>41455</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G16" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="J16" s="5" t="s">
         <v>402</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B17" s="5">
         <v>60</v>
@@ -6485,30 +6473,30 @@
         <v>41820</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="H17" s="5" t="s">
+      <c r="J17" s="5" t="s">
         <v>407</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B18" s="5">
         <v>60</v>
@@ -6518,30 +6506,30 @@
         <v>41820</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="I18" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B19" s="5">
         <v>60</v>
@@ -6551,30 +6539,30 @@
         <v>41820</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="J19" s="5" t="s">
         <v>417</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B20" s="5">
         <v>60</v>
@@ -6584,30 +6572,30 @@
         <v>41820</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="I20" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B21" s="5">
         <v>60</v>
@@ -6617,30 +6605,30 @@
         <v>41820</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E21" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="I21" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>426</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B22" s="5">
         <v>60</v>
@@ -6650,30 +6638,30 @@
         <v>42185</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F22" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="J22" s="5" t="s">
         <v>431</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B23" s="5">
         <v>60</v>
@@ -6683,30 +6671,30 @@
         <v>42185</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B24" s="5">
         <v>60</v>
@@ -6716,30 +6704,30 @@
         <v>42185</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="I24" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="J24" s="5" t="s">
         <v>438</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B25" s="5">
         <v>60</v>
@@ -6749,30 +6737,30 @@
         <v>42185</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="I25" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B26" s="5">
         <v>60</v>
@@ -6782,30 +6770,30 @@
         <v>42185</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H26" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>446</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B27" s="5">
         <v>60</v>
@@ -6815,30 +6803,30 @@
         <v>42551</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B28" s="5">
         <v>60</v>
@@ -6848,30 +6836,30 @@
         <v>42551</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I28" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B29" s="5">
         <v>60</v>
@@ -6881,30 +6869,30 @@
         <v>42551</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E29" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="I29" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="H29" s="5" t="s">
+      <c r="J29" s="5" t="s">
         <v>455</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B30" s="5">
         <v>60</v>
@@ -6914,30 +6902,30 @@
         <v>42551</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="I30" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="H30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B31" s="5">
         <v>60</v>
@@ -6947,30 +6935,30 @@
         <v>42551</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F31" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="J31" s="5" t="s">
         <v>462</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B32" s="5">
         <v>60</v>
@@ -6980,30 +6968,30 @@
         <v>42916</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F32" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="J32" s="5" t="s">
         <v>465</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B33" s="5">
         <v>60</v>
@@ -7013,30 +7001,30 @@
         <v>42916</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B34" s="5">
         <v>60</v>
@@ -7046,30 +7034,30 @@
         <v>42916</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E34" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="H34" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="I34" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="J34" s="5" t="s">
         <v>473</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B35" s="5">
         <v>60</v>
@@ -7079,30 +7067,30 @@
         <v>42916</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G35" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B36" s="5">
         <v>60</v>
@@ -7112,30 +7100,30 @@
         <v>42916</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F36" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="J36" s="5" t="s">
         <v>479</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B37" s="5">
         <v>60</v>
@@ -7145,30 +7133,30 @@
         <v>43281</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F37" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="J37" s="5" t="s">
         <v>482</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B38" s="5">
         <v>60</v>
@@ -7178,30 +7166,30 @@
         <v>43281</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B39" s="5">
         <v>60</v>
@@ -7211,30 +7199,30 @@
         <v>43281</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E39" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="H39" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="I39" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="J39" s="5" t="s">
         <v>490</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B40" s="5">
         <v>60</v>
@@ -7244,30 +7232,30 @@
         <v>43281</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B41" s="5">
         <v>60</v>
@@ -7277,30 +7265,30 @@
         <v>43281</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E41" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="J41" s="5" t="s">
         <v>495</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B42" s="5">
         <v>60</v>
@@ -7310,30 +7298,30 @@
         <v>43646</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F42" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="J42" s="5" t="s">
         <v>498</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B43" s="5">
         <v>60</v>
@@ -7343,30 +7331,30 @@
         <v>43646</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F43" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="I43" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="G43" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H43" s="7" t="s">
+      <c r="J43" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B44" s="5">
         <v>60</v>
@@ -7376,30 +7364,30 @@
         <v>43646</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F44" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="H44" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="I44" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="J44" s="5" t="s">
         <v>507</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B45" s="5">
         <v>60</v>
@@ -7409,30 +7397,30 @@
         <v>43646</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F45" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="J45" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B46" s="5">
         <v>60</v>
@@ -7442,30 +7430,30 @@
         <v>43646</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E46" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="H46" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="I46" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="J46" s="5" t="s">
         <v>516</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B47" s="5">
         <v>60</v>
@@ -7475,30 +7463,30 @@
         <v>44012</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B48" s="5">
         <v>60</v>
@@ -7508,30 +7496,30 @@
         <v>44012</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="H48" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="I48" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="J48" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B49" s="5">
         <v>60</v>
@@ -7541,30 +7529,30 @@
         <v>44012</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F49" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="H49" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="I49" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="J49" s="5" t="s">
         <v>526</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B50" s="5">
         <v>60</v>
@@ -7574,30 +7562,30 @@
         <v>44012</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B51" s="5">
         <v>60</v>
@@ -7607,30 +7595,30 @@
         <v>44012</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F51" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="I51" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="G51" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="H51" s="5" t="s">
+      <c r="J51" s="5" t="s">
         <v>531</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="J51" s="5" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B52" s="5">
         <v>60</v>
@@ -7640,30 +7628,30 @@
         <v>44377</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E52" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H52" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="I52" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="G52" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="H52" s="5" t="s">
+      <c r="J52" s="5" t="s">
         <v>536</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B53" s="5">
         <v>60</v>
@@ -7673,30 +7661,30 @@
         <v>44377</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B54" s="5">
         <v>60</v>
@@ -7706,30 +7694,30 @@
         <v>44377</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G54" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="I54" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="J54" s="5" t="s">
         <v>542</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B55" s="5">
         <v>60</v>
@@ -7739,30 +7727,30 @@
         <v>44377</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B56" s="5">
         <v>60</v>
@@ -7772,30 +7760,30 @@
         <v>44377</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F56" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="H56" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="I56" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="J56" s="5" t="s">
         <v>549</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B57" s="5">
         <v>60</v>
@@ -7805,30 +7793,30 @@
         <v>44742</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F57" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="I57" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="G57" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="H57" s="5" t="s">
+      <c r="J57" s="5" t="s">
         <v>553</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B58" s="5">
         <v>60</v>
@@ -7838,30 +7826,30 @@
         <v>44742</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F58" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="J58" s="7" t="s">
         <v>556</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B59" s="5">
         <v>60</v>
@@ -7871,30 +7859,30 @@
         <v>44742</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F59" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="I59" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="G59" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="H59" s="5" t="s">
+      <c r="J59" s="5" t="s">
         <v>560</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B60" s="5">
         <v>60</v>
@@ -7904,30 +7892,30 @@
         <v>44742</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B61" s="5">
         <v>60</v>
@@ -7937,25 +7925,25 @@
         <v>44742</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F61" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="J61" s="5" t="s">
         <v>564</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="J61" s="5" t="s">
-        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -7969,7 +7957,7 @@
   <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" activeCellId="1" sqref="C2 D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7983,33 +7971,33 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
         <v>331</v>
       </c>
-      <c r="B1" t="s">
-        <v>568</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>332</v>
       </c>
-      <c r="D1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E1" t="s">
-        <v>334</v>
-      </c>
       <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" t="s">
-        <v>63</v>
-      </c>
       <c r="J1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2">
         <v>60</v>
@@ -8023,30 +8011,30 @@
         <v>2012</v>
       </c>
       <c r="E2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" t="s">
         <v>98</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>99</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>100</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>101</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>102</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>103</v>
-      </c>
-      <c r="K2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3">
         <v>60</v>
@@ -8060,30 +8048,30 @@
         <v>2013</v>
       </c>
       <c r="E3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" t="s">
         <v>105</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>106</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>107</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>108</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>109</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>110</v>
-      </c>
-      <c r="K3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4">
         <v>60</v>
@@ -8097,30 +8085,30 @@
         <v>2014</v>
       </c>
       <c r="E4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" t="s">
         <v>112</v>
       </c>
-      <c r="F4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>113</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>114</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>115</v>
-      </c>
-      <c r="K4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5">
         <v>60</v>
@@ -8134,30 +8122,30 @@
         <v>2015</v>
       </c>
       <c r="E5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" t="s">
         <v>117</v>
       </c>
-      <c r="F5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>118</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>119</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>120</v>
-      </c>
-      <c r="K5" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6">
         <v>60</v>
@@ -8171,30 +8159,30 @@
         <v>2016</v>
       </c>
       <c r="E6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" t="s">
         <v>122</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>123</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>124</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>125</v>
       </c>
-      <c r="I6" t="s">
-        <v>126</v>
-      </c>
       <c r="J6" t="s">
+        <v>119</v>
+      </c>
+      <c r="K6" t="s">
         <v>120</v>
-      </c>
-      <c r="K6" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7">
         <v>60</v>
@@ -8208,30 +8196,30 @@
         <v>2017</v>
       </c>
       <c r="E7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" t="s">
         <v>127</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>128</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>129</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>130</v>
       </c>
-      <c r="I7" t="s">
-        <v>131</v>
-      </c>
       <c r="J7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" t="s">
         <v>106</v>
-      </c>
-      <c r="K7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8">
         <v>60</v>
@@ -8245,30 +8233,30 @@
         <v>2013</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" t="s">
         <v>137</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" t="s">
         <v>138</v>
       </c>
-      <c r="H8" t="s">
-        <v>113</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>139</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>140</v>
-      </c>
-      <c r="K8" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9">
         <v>60</v>
@@ -8282,30 +8270,30 @@
         <v>2014</v>
       </c>
       <c r="E9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H9" t="s">
         <v>112</v>
       </c>
-      <c r="F9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J9" t="s">
         <v>143</v>
       </c>
-      <c r="H9" t="s">
-        <v>113</v>
-      </c>
-      <c r="I9" t="s">
-        <v>139</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>144</v>
-      </c>
-      <c r="K9" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10">
         <v>60</v>
@@ -8319,30 +8307,30 @@
         <v>2015</v>
       </c>
       <c r="E10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" t="s">
         <v>137</v>
       </c>
-      <c r="G10" t="s">
-        <v>138</v>
-      </c>
       <c r="H10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I10" t="s">
+        <v>145</v>
+      </c>
+      <c r="J10" t="s">
         <v>146</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>147</v>
-      </c>
-      <c r="K10" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11">
         <v>60</v>
@@ -8356,30 +8344,30 @@
         <v>2016</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H11" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" t="s">
         <v>149</v>
       </c>
-      <c r="H11" t="s">
-        <v>101</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>150</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>151</v>
-      </c>
-      <c r="K11" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B12">
         <v>60</v>
@@ -8393,30 +8381,30 @@
         <v>2017</v>
       </c>
       <c r="E12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
+        <v>152</v>
+      </c>
+      <c r="H12" t="s">
         <v>153</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>154</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>155</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>156</v>
-      </c>
-      <c r="K12" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B13">
         <v>60</v>
@@ -8430,30 +8418,30 @@
         <v>2018</v>
       </c>
       <c r="E13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>152</v>
+      </c>
+      <c r="H13" t="s">
         <v>158</v>
       </c>
-      <c r="F13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G13" t="s">
-        <v>153</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>159</v>
       </c>
-      <c r="I13" t="s">
-        <v>160</v>
-      </c>
       <c r="J13" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" t="s">
         <v>142</v>
-      </c>
-      <c r="K13" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B14">
         <v>60</v>
@@ -8467,30 +8455,30 @@
         <v>2014</v>
       </c>
       <c r="E14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" t="s">
+        <v>163</v>
+      </c>
+      <c r="H14" t="s">
         <v>112</v>
       </c>
-      <c r="F14" t="s">
-        <v>137</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>164</v>
       </c>
-      <c r="H14" t="s">
-        <v>113</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
+        <v>139</v>
+      </c>
+      <c r="K14" t="s">
         <v>165</v>
-      </c>
-      <c r="J14" t="s">
-        <v>140</v>
-      </c>
-      <c r="K14" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B15">
         <v>60</v>
@@ -8504,30 +8492,30 @@
         <v>2015</v>
       </c>
       <c r="E15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I15" t="s">
+        <v>166</v>
+      </c>
+      <c r="J15" t="s">
         <v>167</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>168</v>
-      </c>
-      <c r="K15" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B16">
         <v>60</v>
@@ -8541,30 +8529,30 @@
         <v>2016</v>
       </c>
       <c r="E16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" t="s">
         <v>122</v>
       </c>
-      <c r="F16" t="s">
-        <v>123</v>
-      </c>
       <c r="G16" t="s">
+        <v>169</v>
+      </c>
+      <c r="H16" t="s">
+        <v>107</v>
+      </c>
+      <c r="I16" t="s">
         <v>170</v>
       </c>
-      <c r="H16" t="s">
-        <v>108</v>
-      </c>
-      <c r="I16" t="s">
-        <v>171</v>
-      </c>
       <c r="J16" t="s">
+        <v>167</v>
+      </c>
+      <c r="K16" t="s">
         <v>168</v>
-      </c>
-      <c r="K16" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B17">
         <v>60</v>
@@ -8578,30 +8566,30 @@
         <v>2017</v>
       </c>
       <c r="E17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G17" t="s">
+        <v>171</v>
+      </c>
+      <c r="H17" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" t="s">
         <v>172</v>
       </c>
-      <c r="H17" t="s">
-        <v>101</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>173</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>174</v>
-      </c>
-      <c r="K17" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B18">
         <v>60</v>
@@ -8615,30 +8603,30 @@
         <v>2018</v>
       </c>
       <c r="E18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I18" t="s">
+        <v>175</v>
+      </c>
+      <c r="J18" t="s">
+        <v>119</v>
+      </c>
+      <c r="K18" t="s">
         <v>176</v>
-      </c>
-      <c r="J18" t="s">
-        <v>120</v>
-      </c>
-      <c r="K18" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B19">
         <v>60</v>
@@ -8652,30 +8640,30 @@
         <v>2019</v>
       </c>
       <c r="E19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" t="s">
+        <v>171</v>
+      </c>
+      <c r="H19" t="s">
+        <v>129</v>
+      </c>
+      <c r="I19" t="s">
         <v>178</v>
       </c>
-      <c r="F19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G19" t="s">
-        <v>172</v>
-      </c>
-      <c r="H19" t="s">
-        <v>130</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>179</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>180</v>
-      </c>
-      <c r="K19" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B20">
         <v>60</v>
@@ -8689,30 +8677,30 @@
         <v>2015</v>
       </c>
       <c r="E20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G20" t="s">
+        <v>183</v>
+      </c>
+      <c r="H20" t="s">
+        <v>124</v>
+      </c>
+      <c r="I20" t="s">
         <v>184</v>
       </c>
-      <c r="H20" t="s">
-        <v>125</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
+        <v>167</v>
+      </c>
+      <c r="K20" t="s">
         <v>185</v>
-      </c>
-      <c r="J20" t="s">
-        <v>168</v>
-      </c>
-      <c r="K20" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B21">
         <v>60</v>
@@ -8726,30 +8714,30 @@
         <v>2016</v>
       </c>
       <c r="E21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G21" t="s">
+        <v>186</v>
+      </c>
+      <c r="H21" t="s">
+        <v>107</v>
+      </c>
+      <c r="I21" t="s">
+        <v>186</v>
+      </c>
+      <c r="J21" t="s">
+        <v>146</v>
+      </c>
+      <c r="K21" t="s">
         <v>187</v>
-      </c>
-      <c r="H21" t="s">
-        <v>108</v>
-      </c>
-      <c r="I21" t="s">
-        <v>187</v>
-      </c>
-      <c r="J21" t="s">
-        <v>147</v>
-      </c>
-      <c r="K21" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B22">
         <v>60</v>
@@ -8763,30 +8751,30 @@
         <v>2017</v>
       </c>
       <c r="E22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B23">
         <v>60</v>
@@ -8800,30 +8788,30 @@
         <v>2018</v>
       </c>
       <c r="E23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G23" t="s">
+        <v>189</v>
+      </c>
+      <c r="H23" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23" t="s">
+        <v>186</v>
+      </c>
+      <c r="J23" t="s">
         <v>190</v>
       </c>
-      <c r="H23" t="s">
-        <v>108</v>
-      </c>
-      <c r="I23" t="s">
-        <v>187</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>191</v>
-      </c>
-      <c r="K23" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B24">
         <v>60</v>
@@ -8837,30 +8825,30 @@
         <v>2019</v>
       </c>
       <c r="E24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I24" t="s">
+        <v>192</v>
+      </c>
+      <c r="J24" t="s">
+        <v>179</v>
+      </c>
+      <c r="K24" t="s">
         <v>193</v>
-      </c>
-      <c r="J24" t="s">
-        <v>180</v>
-      </c>
-      <c r="K24" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B25">
         <v>60</v>
@@ -8874,30 +8862,30 @@
         <v>2020</v>
       </c>
       <c r="E25" t="s">
+        <v>194</v>
+      </c>
+      <c r="F25" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" t="s">
         <v>195</v>
       </c>
-      <c r="F25" t="s">
-        <v>130</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
+        <v>117</v>
+      </c>
+      <c r="I25" t="s">
         <v>196</v>
       </c>
-      <c r="H25" t="s">
-        <v>118</v>
-      </c>
-      <c r="I25" t="s">
-        <v>197</v>
-      </c>
       <c r="J25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B26">
         <v>60</v>
@@ -8911,30 +8899,30 @@
         <v>2016</v>
       </c>
       <c r="E26" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" t="s">
         <v>122</v>
       </c>
-      <c r="F26" t="s">
-        <v>123</v>
-      </c>
       <c r="G26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H26" t="s">
+        <v>122</v>
+      </c>
+      <c r="I26" t="s">
+        <v>200</v>
+      </c>
+      <c r="J26" t="s">
+        <v>190</v>
+      </c>
+      <c r="K26" t="s">
         <v>201</v>
-      </c>
-      <c r="H26" t="s">
-        <v>123</v>
-      </c>
-      <c r="I26" t="s">
-        <v>201</v>
-      </c>
-      <c r="J26" t="s">
-        <v>191</v>
-      </c>
-      <c r="K26" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B27">
         <v>60</v>
@@ -8948,30 +8936,30 @@
         <v>2017</v>
       </c>
       <c r="E27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G27" t="s">
+        <v>202</v>
+      </c>
+      <c r="H27" t="s">
+        <v>100</v>
+      </c>
+      <c r="I27" t="s">
         <v>203</v>
       </c>
-      <c r="H27" t="s">
-        <v>101</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
+        <v>98</v>
+      </c>
+      <c r="K27" t="s">
         <v>204</v>
-      </c>
-      <c r="J27" t="s">
-        <v>99</v>
-      </c>
-      <c r="K27" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B28">
         <v>60</v>
@@ -8985,30 +8973,30 @@
         <v>2018</v>
       </c>
       <c r="E28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I28" t="s">
+        <v>205</v>
+      </c>
+      <c r="J28" t="s">
+        <v>150</v>
+      </c>
+      <c r="K28" t="s">
         <v>206</v>
-      </c>
-      <c r="J28" t="s">
-        <v>151</v>
-      </c>
-      <c r="K28" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B29">
         <v>60</v>
@@ -9022,30 +9010,30 @@
         <v>2019</v>
       </c>
       <c r="E29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B30">
         <v>60</v>
@@ -9059,30 +9047,30 @@
         <v>2020</v>
       </c>
       <c r="E30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I30" t="s">
+        <v>208</v>
+      </c>
+      <c r="J30" t="s">
+        <v>155</v>
+      </c>
+      <c r="K30" t="s">
         <v>209</v>
-      </c>
-      <c r="J30" t="s">
-        <v>156</v>
-      </c>
-      <c r="K30" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B31">
         <v>60</v>
@@ -9096,30 +9084,30 @@
         <v>2021</v>
       </c>
       <c r="E31" t="s">
+        <v>210</v>
+      </c>
+      <c r="F31" t="s">
         <v>211</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>212</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
+        <v>122</v>
+      </c>
+      <c r="I31" t="s">
+        <v>200</v>
+      </c>
+      <c r="J31" t="s">
+        <v>102</v>
+      </c>
+      <c r="K31" t="s">
         <v>213</v>
-      </c>
-      <c r="H31" t="s">
-        <v>123</v>
-      </c>
-      <c r="I31" t="s">
-        <v>201</v>
-      </c>
-      <c r="J31" t="s">
-        <v>103</v>
-      </c>
-      <c r="K31" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B32">
         <v>60</v>
@@ -9133,30 +9121,30 @@
         <v>2017</v>
       </c>
       <c r="E32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G32" t="s">
+        <v>216</v>
+      </c>
+      <c r="H32" t="s">
+        <v>124</v>
+      </c>
+      <c r="I32" t="s">
         <v>217</v>
       </c>
-      <c r="H32" t="s">
-        <v>125</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
+        <v>155</v>
+      </c>
+      <c r="K32" t="s">
         <v>218</v>
-      </c>
-      <c r="J32" t="s">
-        <v>156</v>
-      </c>
-      <c r="K32" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B33">
         <v>60</v>
@@ -9170,30 +9158,30 @@
         <v>2018</v>
       </c>
       <c r="E33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G33" t="s">
+        <v>219</v>
+      </c>
+      <c r="H33" t="s">
+        <v>107</v>
+      </c>
+      <c r="I33" t="s">
         <v>220</v>
       </c>
-      <c r="H33" t="s">
-        <v>108</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
+        <v>150</v>
+      </c>
+      <c r="K33" t="s">
         <v>221</v>
-      </c>
-      <c r="J33" t="s">
-        <v>151</v>
-      </c>
-      <c r="K33" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B34">
         <v>60</v>
@@ -9207,30 +9195,30 @@
         <v>2019</v>
       </c>
       <c r="E34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I34" t="s">
+        <v>222</v>
+      </c>
+      <c r="J34" t="s">
+        <v>211</v>
+      </c>
+      <c r="K34" t="s">
         <v>223</v>
-      </c>
-      <c r="J34" t="s">
-        <v>212</v>
-      </c>
-      <c r="K34" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B35">
         <v>60</v>
@@ -9244,30 +9232,30 @@
         <v>2020</v>
       </c>
       <c r="E35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B36">
         <v>60</v>
@@ -9281,30 +9269,30 @@
         <v>2021</v>
       </c>
       <c r="E36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G36" t="s">
+        <v>224</v>
+      </c>
+      <c r="H36" t="s">
+        <v>179</v>
+      </c>
+      <c r="I36" t="s">
         <v>225</v>
       </c>
-      <c r="H36" t="s">
-        <v>180</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>226</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>227</v>
-      </c>
-      <c r="K36" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B37">
         <v>60</v>
@@ -9318,30 +9306,30 @@
         <v>2022</v>
       </c>
       <c r="E37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G37" t="s">
+        <v>217</v>
+      </c>
+      <c r="H37" t="s">
+        <v>153</v>
+      </c>
+      <c r="I37" t="s">
+        <v>216</v>
+      </c>
+      <c r="J37" t="s">
+        <v>155</v>
+      </c>
+      <c r="K37" t="s">
         <v>218</v>
-      </c>
-      <c r="H37" t="s">
-        <v>154</v>
-      </c>
-      <c r="I37" t="s">
-        <v>217</v>
-      </c>
-      <c r="J37" t="s">
-        <v>156</v>
-      </c>
-      <c r="K37" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B38">
         <v>60</v>
@@ -9355,30 +9343,30 @@
         <v>2018</v>
       </c>
       <c r="E38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G38" t="s">
+        <v>233</v>
+      </c>
+      <c r="H38" t="s">
+        <v>107</v>
+      </c>
+      <c r="I38" t="s">
+        <v>233</v>
+      </c>
+      <c r="J38" t="s">
+        <v>146</v>
+      </c>
+      <c r="K38" t="s">
         <v>234</v>
-      </c>
-      <c r="H38" t="s">
-        <v>108</v>
-      </c>
-      <c r="I38" t="s">
-        <v>234</v>
-      </c>
-      <c r="J38" t="s">
-        <v>147</v>
-      </c>
-      <c r="K38" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B39">
         <v>60</v>
@@ -9392,30 +9380,30 @@
         <v>2019</v>
       </c>
       <c r="E39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G39" t="s">
+        <v>235</v>
+      </c>
+      <c r="H39" t="s">
+        <v>158</v>
+      </c>
+      <c r="I39" t="s">
         <v>236</v>
       </c>
-      <c r="H39" t="s">
-        <v>159</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
+        <v>211</v>
+      </c>
+      <c r="K39" t="s">
         <v>237</v>
-      </c>
-      <c r="J39" t="s">
-        <v>212</v>
-      </c>
-      <c r="K39" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B40">
         <v>60</v>
@@ -9429,30 +9417,30 @@
         <v>2020</v>
       </c>
       <c r="E40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G40" t="s">
+        <v>238</v>
+      </c>
+      <c r="H40" t="s">
+        <v>107</v>
+      </c>
+      <c r="I40" t="s">
+        <v>233</v>
+      </c>
+      <c r="J40" t="s">
+        <v>98</v>
+      </c>
+      <c r="K40" t="s">
         <v>239</v>
-      </c>
-      <c r="H40" t="s">
-        <v>108</v>
-      </c>
-      <c r="I40" t="s">
-        <v>234</v>
-      </c>
-      <c r="J40" t="s">
-        <v>99</v>
-      </c>
-      <c r="K40" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B41">
         <v>60</v>
@@ -9466,30 +9454,30 @@
         <v>2021</v>
       </c>
       <c r="E41" t="s">
+        <v>210</v>
+      </c>
+      <c r="F41" t="s">
+        <v>155</v>
+      </c>
+      <c r="G41" t="s">
+        <v>240</v>
+      </c>
+      <c r="H41" t="s">
         <v>211</v>
       </c>
-      <c r="F41" t="s">
-        <v>156</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="I41" t="s">
+        <v>237</v>
+      </c>
+      <c r="J41" t="s">
         <v>241</v>
       </c>
-      <c r="H41" t="s">
-        <v>212</v>
-      </c>
-      <c r="I41" t="s">
-        <v>238</v>
-      </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>242</v>
-      </c>
-      <c r="K41" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B42">
         <v>60</v>
@@ -9503,30 +9491,30 @@
         <v>2022</v>
       </c>
       <c r="E42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G42" t="s">
+        <v>243</v>
+      </c>
+      <c r="H42" t="s">
+        <v>112</v>
+      </c>
+      <c r="I42" t="s">
         <v>244</v>
       </c>
-      <c r="H42" t="s">
-        <v>113</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
+        <v>167</v>
+      </c>
+      <c r="K42" t="s">
         <v>245</v>
-      </c>
-      <c r="J42" t="s">
-        <v>168</v>
-      </c>
-      <c r="K42" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B43">
         <v>60</v>
@@ -9540,30 +9528,30 @@
         <v>2023</v>
       </c>
       <c r="E43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K43" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B44">
         <v>60</v>
@@ -9577,30 +9565,30 @@
         <v>2019</v>
       </c>
       <c r="E44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H44" t="s">
+        <v>249</v>
+      </c>
+      <c r="I44" t="s">
         <v>250</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
+        <v>179</v>
+      </c>
+      <c r="K44" t="s">
         <v>251</v>
-      </c>
-      <c r="J44" t="s">
-        <v>180</v>
-      </c>
-      <c r="K44" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B45">
         <v>60</v>
@@ -9614,30 +9602,30 @@
         <v>2020</v>
       </c>
       <c r="E45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G45" t="s">
+        <v>252</v>
+      </c>
+      <c r="H45" t="s">
+        <v>107</v>
+      </c>
+      <c r="I45" t="s">
         <v>253</v>
       </c>
-      <c r="H45" t="s">
-        <v>108</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
+        <v>98</v>
+      </c>
+      <c r="K45" t="s">
         <v>254</v>
-      </c>
-      <c r="J45" t="s">
-        <v>99</v>
-      </c>
-      <c r="K45" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B46">
         <v>60</v>
@@ -9651,30 +9639,30 @@
         <v>2021</v>
       </c>
       <c r="E46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G46" t="s">
+        <v>255</v>
+      </c>
+      <c r="H46" t="s">
+        <v>136</v>
+      </c>
+      <c r="I46" t="s">
         <v>256</v>
       </c>
-      <c r="H46" t="s">
-        <v>137</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
+        <v>241</v>
+      </c>
+      <c r="K46" t="s">
         <v>257</v>
-      </c>
-      <c r="J46" t="s">
-        <v>242</v>
-      </c>
-      <c r="K46" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B47">
         <v>60</v>
@@ -9688,30 +9676,30 @@
         <v>2022</v>
       </c>
       <c r="E47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G47" t="s">
+        <v>258</v>
+      </c>
+      <c r="H47" t="s">
+        <v>107</v>
+      </c>
+      <c r="I47" t="s">
+        <v>253</v>
+      </c>
+      <c r="J47" t="s">
         <v>259</v>
       </c>
-      <c r="H47" t="s">
-        <v>108</v>
-      </c>
-      <c r="I47" t="s">
-        <v>254</v>
-      </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>260</v>
-      </c>
-      <c r="K47" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B48">
         <v>60</v>
@@ -9725,30 +9713,30 @@
         <v>2023</v>
       </c>
       <c r="E48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G48" t="s">
+        <v>261</v>
+      </c>
+      <c r="H48" t="s">
+        <v>100</v>
+      </c>
+      <c r="I48" t="s">
+        <v>261</v>
+      </c>
+      <c r="J48" t="s">
+        <v>119</v>
+      </c>
+      <c r="K48" t="s">
         <v>262</v>
-      </c>
-      <c r="H48" t="s">
-        <v>101</v>
-      </c>
-      <c r="I48" t="s">
-        <v>262</v>
-      </c>
-      <c r="J48" t="s">
-        <v>120</v>
-      </c>
-      <c r="K48" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B49">
         <v>60</v>
@@ -9762,30 +9750,30 @@
         <v>2024</v>
       </c>
       <c r="E49" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I49" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J49" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K49" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B50">
         <v>60</v>
@@ -9799,30 +9787,30 @@
         <v>2020</v>
       </c>
       <c r="E50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G50" t="s">
+        <v>268</v>
+      </c>
+      <c r="H50" t="s">
+        <v>107</v>
+      </c>
+      <c r="I50" t="s">
         <v>269</v>
       </c>
-      <c r="H50" t="s">
-        <v>108</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
+        <v>173</v>
+      </c>
+      <c r="K50" t="s">
         <v>270</v>
-      </c>
-      <c r="J50" t="s">
-        <v>174</v>
-      </c>
-      <c r="K50" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B51">
         <v>60</v>
@@ -9836,30 +9824,30 @@
         <v>2021</v>
       </c>
       <c r="E51" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G51" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I51" t="s">
+        <v>271</v>
+      </c>
+      <c r="J51" t="s">
+        <v>241</v>
+      </c>
+      <c r="K51" t="s">
         <v>272</v>
-      </c>
-      <c r="J51" t="s">
-        <v>242</v>
-      </c>
-      <c r="K51" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B52">
         <v>60</v>
@@ -9873,30 +9861,30 @@
         <v>2022</v>
       </c>
       <c r="E52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G52" t="s">
+        <v>273</v>
+      </c>
+      <c r="H52" t="s">
+        <v>107</v>
+      </c>
+      <c r="I52" t="s">
+        <v>269</v>
+      </c>
+      <c r="J52" t="s">
+        <v>167</v>
+      </c>
+      <c r="K52" t="s">
         <v>274</v>
-      </c>
-      <c r="H52" t="s">
-        <v>108</v>
-      </c>
-      <c r="I52" t="s">
-        <v>270</v>
-      </c>
-      <c r="J52" t="s">
-        <v>168</v>
-      </c>
-      <c r="K52" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B53">
         <v>60</v>
@@ -9910,30 +9898,30 @@
         <v>2023</v>
       </c>
       <c r="E53" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G53" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I53" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J53" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K53" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B54">
         <v>60</v>
@@ -9947,30 +9935,30 @@
         <v>2024</v>
       </c>
       <c r="E54" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I54" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J54" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K54" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B55">
         <v>60</v>
@@ -9984,30 +9972,30 @@
         <v>2025</v>
       </c>
       <c r="E55" t="s">
+        <v>277</v>
+      </c>
+      <c r="F55" t="s">
+        <v>124</v>
+      </c>
+      <c r="G55" t="s">
+        <v>268</v>
+      </c>
+      <c r="H55" t="s">
+        <v>153</v>
+      </c>
+      <c r="I55" t="s">
         <v>278</v>
       </c>
-      <c r="F55" t="s">
-        <v>125</v>
-      </c>
-      <c r="G55" t="s">
-        <v>269</v>
-      </c>
-      <c r="H55" t="s">
-        <v>154</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
+        <v>155</v>
+      </c>
+      <c r="K55" t="s">
         <v>279</v>
-      </c>
-      <c r="J55" t="s">
-        <v>156</v>
-      </c>
-      <c r="K55" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B56">
         <v>60</v>
@@ -10021,30 +10009,30 @@
         <v>2021</v>
       </c>
       <c r="E56" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F56" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G56" t="s">
+        <v>283</v>
+      </c>
+      <c r="H56" t="s">
+        <v>179</v>
+      </c>
+      <c r="I56" t="s">
         <v>284</v>
       </c>
-      <c r="H56" t="s">
-        <v>180</v>
-      </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
+        <v>226</v>
+      </c>
+      <c r="K56" t="s">
         <v>285</v>
-      </c>
-      <c r="J56" t="s">
-        <v>227</v>
-      </c>
-      <c r="K56" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B57">
         <v>60</v>
@@ -10058,30 +10046,30 @@
         <v>2022</v>
       </c>
       <c r="E57" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G57" t="s">
+        <v>286</v>
+      </c>
+      <c r="H57" t="s">
+        <v>107</v>
+      </c>
+      <c r="I57" t="s">
         <v>287</v>
       </c>
-      <c r="H57" t="s">
-        <v>108</v>
-      </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
+        <v>190</v>
+      </c>
+      <c r="K57" t="s">
         <v>288</v>
-      </c>
-      <c r="J57" t="s">
-        <v>191</v>
-      </c>
-      <c r="K57" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B58">
         <v>60</v>
@@ -10095,30 +10083,30 @@
         <v>2023</v>
       </c>
       <c r="E58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G58" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I58" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K58" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B59">
         <v>60</v>
@@ -10132,30 +10120,30 @@
         <v>2024</v>
       </c>
       <c r="E59" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G59" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I59" t="s">
+        <v>290</v>
+      </c>
+      <c r="J59" t="s">
+        <v>119</v>
+      </c>
+      <c r="K59" t="s">
         <v>291</v>
-      </c>
-      <c r="J59" t="s">
-        <v>120</v>
-      </c>
-      <c r="K59" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B60">
         <v>60</v>
@@ -10169,30 +10157,30 @@
         <v>2025</v>
       </c>
       <c r="E60" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G60" t="s">
+        <v>292</v>
+      </c>
+      <c r="H60" t="s">
+        <v>141</v>
+      </c>
+      <c r="I60" t="s">
         <v>293</v>
       </c>
-      <c r="H60" t="s">
-        <v>142</v>
-      </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
+        <v>139</v>
+      </c>
+      <c r="K60" t="s">
         <v>294</v>
-      </c>
-      <c r="J60" t="s">
-        <v>140</v>
-      </c>
-      <c r="K60" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B61">
         <v>60</v>
@@ -10206,30 +10194,30 @@
         <v>2026</v>
       </c>
       <c r="E61" t="s">
+        <v>295</v>
+      </c>
+      <c r="F61" t="s">
+        <v>124</v>
+      </c>
+      <c r="G61" t="s">
         <v>296</v>
       </c>
-      <c r="F61" t="s">
-        <v>125</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
+        <v>100</v>
+      </c>
+      <c r="I61" t="s">
         <v>297</v>
       </c>
-      <c r="H61" t="s">
-        <v>101</v>
-      </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
+        <v>98</v>
+      </c>
+      <c r="K61" t="s">
         <v>298</v>
-      </c>
-      <c r="J61" t="s">
-        <v>99</v>
-      </c>
-      <c r="K61" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B62">
         <v>60</v>
@@ -10243,30 +10231,30 @@
         <v>2022</v>
       </c>
       <c r="E62" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F62" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G62" t="s">
+        <v>302</v>
+      </c>
+      <c r="H62" t="s">
+        <v>122</v>
+      </c>
+      <c r="I62" t="s">
         <v>303</v>
       </c>
-      <c r="H62" t="s">
-        <v>123</v>
-      </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
+        <v>259</v>
+      </c>
+      <c r="K62" t="s">
         <v>304</v>
-      </c>
-      <c r="J62" t="s">
-        <v>260</v>
-      </c>
-      <c r="K62" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B63">
         <v>60</v>
@@ -10280,30 +10268,30 @@
         <v>2023</v>
       </c>
       <c r="E63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G63" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I63" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J63" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K63" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B64">
         <v>60</v>
@@ -10317,30 +10305,30 @@
         <v>2024</v>
       </c>
       <c r="E64" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F64" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G64" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I64" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J64" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K64" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B65">
         <v>60</v>
@@ -10354,30 +10342,30 @@
         <v>2025</v>
       </c>
       <c r="E65" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G65" t="s">
+        <v>306</v>
+      </c>
+      <c r="H65" t="s">
+        <v>136</v>
+      </c>
+      <c r="I65" t="s">
         <v>307</v>
       </c>
-      <c r="H65" t="s">
-        <v>137</v>
-      </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
+        <v>102</v>
+      </c>
+      <c r="K65" t="s">
         <v>308</v>
-      </c>
-      <c r="J65" t="s">
-        <v>103</v>
-      </c>
-      <c r="K65" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B66">
         <v>60</v>
@@ -10391,30 +10379,30 @@
         <v>2026</v>
       </c>
       <c r="E66" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G66" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H66" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I66" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K66" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B67">
         <v>60</v>
@@ -10428,30 +10416,30 @@
         <v>2027</v>
       </c>
       <c r="E67" t="s">
+        <v>309</v>
+      </c>
+      <c r="F67" t="s">
+        <v>211</v>
+      </c>
+      <c r="G67" t="s">
         <v>310</v>
       </c>
-      <c r="F67" t="s">
-        <v>212</v>
-      </c>
-      <c r="G67" t="s">
-        <v>311</v>
-      </c>
       <c r="H67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I67" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J67" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K67" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B68">
         <v>60</v>
@@ -10465,30 +10453,30 @@
         <v>2023</v>
       </c>
       <c r="E68" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G68" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I68" t="s">
+        <v>313</v>
+      </c>
+      <c r="J68" t="s">
+        <v>259</v>
+      </c>
+      <c r="K68" t="s">
         <v>314</v>
-      </c>
-      <c r="J68" t="s">
-        <v>260</v>
-      </c>
-      <c r="K68" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B69">
         <v>60</v>
@@ -10502,30 +10490,30 @@
         <v>2024</v>
       </c>
       <c r="E69" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F69" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G69" t="s">
+        <v>315</v>
+      </c>
+      <c r="H69" t="s">
+        <v>153</v>
+      </c>
+      <c r="I69" t="s">
+        <v>315</v>
+      </c>
+      <c r="J69" t="s">
+        <v>98</v>
+      </c>
+      <c r="K69" t="s">
         <v>316</v>
-      </c>
-      <c r="H69" t="s">
-        <v>154</v>
-      </c>
-      <c r="I69" t="s">
-        <v>316</v>
-      </c>
-      <c r="J69" t="s">
-        <v>99</v>
-      </c>
-      <c r="K69" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B70">
         <v>60</v>
@@ -10539,30 +10527,30 @@
         <v>2025</v>
       </c>
       <c r="E70" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G70" t="s">
+        <v>317</v>
+      </c>
+      <c r="H70" t="s">
+        <v>179</v>
+      </c>
+      <c r="I70" t="s">
         <v>318</v>
       </c>
-      <c r="H70" t="s">
-        <v>180</v>
-      </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>319</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>320</v>
-      </c>
-      <c r="K70" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B71">
         <v>60</v>
@@ -10576,30 +10564,30 @@
         <v>2026</v>
       </c>
       <c r="E71" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G71" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H71" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I71" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J71" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K71" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B72">
         <v>60</v>
@@ -10613,30 +10601,30 @@
         <v>2027</v>
       </c>
       <c r="E72" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F72" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G72" t="s">
+        <v>322</v>
+      </c>
+      <c r="H72" t="s">
+        <v>124</v>
+      </c>
+      <c r="I72" t="s">
         <v>323</v>
       </c>
-      <c r="H72" t="s">
-        <v>125</v>
-      </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>324</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>325</v>
-      </c>
-      <c r="K72" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B73">
         <v>60</v>
@@ -10650,25 +10638,25 @@
         <v>2028</v>
       </c>
       <c r="E73" t="s">
+        <v>326</v>
+      </c>
+      <c r="F73" t="s">
+        <v>141</v>
+      </c>
+      <c r="G73" t="s">
+        <v>317</v>
+      </c>
+      <c r="H73" t="s">
+        <v>117</v>
+      </c>
+      <c r="I73" t="s">
         <v>327</v>
       </c>
-      <c r="F73" t="s">
-        <v>142</v>
-      </c>
-      <c r="G73" t="s">
-        <v>318</v>
-      </c>
-      <c r="H73" t="s">
-        <v>118</v>
-      </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
+        <v>173</v>
+      </c>
+      <c r="K73" t="s">
         <v>328</v>
-      </c>
-      <c r="J73" t="s">
-        <v>174</v>
-      </c>
-      <c r="K73" t="s">
-        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -10680,7 +10668,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -10717,28 +10707,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>75</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>76</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>78</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>79</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>80</v>
-      </c>
-      <c r="I1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -10746,13 +10736,13 @@
         <v>60</v>
       </c>
       <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
         <v>82</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>83</v>
-      </c>
-      <c r="D2" t="s">
-        <v>84</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -10775,13 +10765,13 @@
         <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -10804,13 +10794,13 @@
         <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -10833,13 +10823,13 @@
         <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -10862,13 +10852,13 @@
         <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -10891,13 +10881,13 @@
         <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -10920,13 +10910,13 @@
         <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -10949,13 +10939,13 @@
         <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -10978,13 +10968,13 @@
         <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -11007,13 +10997,13 @@
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" t="s">
         <v>89</v>
-      </c>
-      <c r="D11" t="s">
-        <v>90</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -11036,13 +11026,13 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -11065,13 +11055,13 @@
         <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -11094,13 +11084,13 @@
         <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -11123,13 +11113,13 @@
         <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -11152,13 +11142,13 @@
         <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>

--- a/hhdaten/grunddaten.xlsx
+++ b/hhdaten/grunddaten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="7200" windowHeight="12225" activeTab="8"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="7200" windowHeight="12225" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="gde" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,9 @@
     <sheet name="ew_religion" sheetId="12" r:id="rId7"/>
     <sheet name="ew_famstand" sheetId="11" r:id="rId8"/>
     <sheet name="Flaeche" sheetId="4" r:id="rId9"/>
-    <sheet name="LFAGHHJ" sheetId="5" r:id="rId10"/>
-    <sheet name="JAWerte" sheetId="7" r:id="rId11"/>
-    <sheet name="Tabelle3" sheetId="8" r:id="rId12"/>
+    <sheet name="STKRAFT" sheetId="8" r:id="rId10"/>
+    <sheet name="LFAGHHJ" sheetId="5" r:id="rId11"/>
+    <sheet name="JAWerte" sheetId="7" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">e_u20!$A$1:$J$61</definedName>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="582">
   <si>
     <t>gdenr</t>
   </si>
@@ -1739,6 +1739,42 @@
   </si>
   <si>
     <t>source</t>
+  </si>
+  <si>
+    <t>Gde</t>
+  </si>
+  <si>
+    <t>HHJ</t>
+  </si>
+  <si>
+    <t>grsta_IV_vvj</t>
+  </si>
+  <si>
+    <t>grsta_I-III_vj</t>
+  </si>
+  <si>
+    <t>grstb_IV_vvj</t>
+  </si>
+  <si>
+    <t>grstb_I-III_vj</t>
+  </si>
+  <si>
+    <t>gewst_IV_vvj</t>
+  </si>
+  <si>
+    <t>gewst_I-III_vj</t>
+  </si>
+  <si>
+    <t>ber_grsta_IV_vvj</t>
+  </si>
+  <si>
+    <t>hebesatz_grsta_IV_vvj</t>
+  </si>
+  <si>
+    <t>ber_grsta_I-III_vj</t>
+  </si>
+  <si>
+    <t>hebesatz_grsta_I-III_vj</t>
   </si>
 </sst>
 </file>
@@ -2345,17 +2381,149 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F1" t="s">
+        <v>573</v>
+      </c>
+      <c r="G1" t="s">
+        <v>580</v>
+      </c>
+      <c r="H1" t="s">
+        <v>581</v>
+      </c>
+      <c r="J1" t="s">
+        <v>574</v>
+      </c>
+      <c r="K1" t="s">
+        <v>575</v>
+      </c>
+      <c r="L1" t="s">
+        <v>576</v>
+      </c>
+      <c r="M1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
@@ -2639,20 +2807,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10696,7 +10850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
